--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Public\Demos\Custom_demo\Recruitment_Dairy_Case\DigitalAlternative\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geukens Arno\Desktop\ProductInnovatie\ProductInnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B16B93-EF75-4B25-989F-58136AE67C6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F03E6-13BB-4375-9F23-8849C184ACDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20077" windowHeight="10769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
   <si>
     <t>Milk_Pack</t>
   </si>
@@ -955,7 +957,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -967,15 +975,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -984,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,11 +1005,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Berekening" xfId="3" builtinId="22"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+    <cellStyle name="Procent" xfId="5" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1122,7 +1124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1423,110 +1425,110 @@
   </sheetPr>
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.09375" customWidth="1"/>
+    <col min="4" max="4" width="13.90234375" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="G4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="G4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="L4" s="63" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="L4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="R4" s="63" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="R4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="67"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="L5" s="1"/>
       <c r="M5" s="35" t="s">
         <v>30</v>
@@ -1548,7 +1550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="36"/>
       <c r="D8" s="2"/>
@@ -1683,7 +1685,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
       <c r="G10" s="1"/>
@@ -1763,19 +1765,19 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="G11" s="66" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="G11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="L11" s="37" t="s">
         <v>18</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1853,7 +1855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="36"/>
       <c r="D14" s="2"/>
@@ -1935,7 +1937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2023,7 +2025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
       <c r="L17" s="42" t="s">
         <v>24</v>
       </c>
@@ -2052,19 +2054,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A18" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="47"/>
       <c r="B19" s="35" t="s">
         <v>44</v>
@@ -2090,8 +2092,8 @@
       </c>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A20" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2107,8 +2109,8 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A21" s="68"/>
       <c r="B21" s="40" t="s">
         <v>30</v>
       </c>
@@ -2122,8 +2124,8 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A22" s="68"/>
       <c r="B22" s="40" t="s">
         <v>31</v>
       </c>
@@ -2137,8 +2139,8 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A23" s="68"/>
       <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
@@ -2164,8 +2166,8 @@
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A24" s="68"/>
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
@@ -2193,8 +2195,8 @@
       <c r="W24" s="41"/>
       <c r="X24" s="41"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A25" s="68"/>
       <c r="B25" s="40" t="s">
         <v>32</v>
       </c>
@@ -2212,8 +2214,8 @@
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A26" s="68"/>
       <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
@@ -2240,8 +2242,8 @@
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A27" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -2272,8 +2274,8 @@
       <c r="W27" s="41"/>
       <c r="X27" s="41"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A28" s="68"/>
       <c r="B28" s="40" t="s">
         <v>42</v>
       </c>
@@ -2289,8 +2291,8 @@
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A29" s="68"/>
       <c r="B29" s="40" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2318,8 @@
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A30" s="68"/>
       <c r="B30" s="40" t="s">
         <v>41</v>
       </c>
@@ -2342,8 +2344,8 @@
       <c r="W30" s="41"/>
       <c r="X30" s="41"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A31" s="68"/>
       <c r="B31" s="40" t="s">
         <v>45</v>
       </c>
@@ -2357,8 +2359,8 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A32" s="68"/>
       <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2373,8 @@
       <c r="H32" s="2"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A33" s="68"/>
       <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
@@ -2385,8 +2387,8 @@
       <c r="H33" s="2"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A34" s="70"/>
       <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
@@ -2406,7 +2408,7 @@
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
       <c r="B35" s="40"/>
       <c r="D35" s="40"/>
       <c r="F35" s="48"/>
@@ -2417,22 +2419,22 @@
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A36" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A37" s="47"/>
       <c r="B37" s="35" t="s">
         <v>53</v>
@@ -2451,7 +2453,7 @@
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
       <c r="B38" s="40" t="s">
         <v>1</v>
@@ -2472,7 +2474,7 @@
       <c r="J38" s="40"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="1"/>
       <c r="B39" s="40" t="s">
         <v>1</v>
@@ -2493,7 +2495,7 @@
       <c r="J39" s="40"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A40" s="1"/>
       <c r="B40" s="40" t="s">
         <v>1</v>
@@ -2514,7 +2516,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A41" s="1"/>
       <c r="B41" s="40" t="s">
         <v>1</v>
@@ -2535,7 +2537,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A42" s="1"/>
       <c r="B42" s="40" t="s">
         <v>1</v>
@@ -2554,7 +2556,7 @@
       <c r="H42" s="2"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A43" s="1"/>
       <c r="B43" s="40" t="s">
         <v>1</v>
@@ -2572,7 +2574,7 @@
       <c r="G43" s="48"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="B44" s="40" t="s">
         <v>1</v>
@@ -2590,7 +2592,7 @@
       <c r="G44" s="48"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A45" s="1"/>
       <c r="B45" s="40" t="s">
         <v>4</v>
@@ -2608,7 +2610,7 @@
       <c r="G45" s="48"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A46" s="1"/>
       <c r="B46" s="40" t="s">
         <v>4</v>
@@ -2626,7 +2628,7 @@
       <c r="G46" s="48"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A47" s="1"/>
       <c r="B47" s="40" t="s">
         <v>0</v>
@@ -2644,7 +2646,7 @@
       <c r="G47" s="48"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A48" s="1"/>
       <c r="B48" s="40" t="s">
         <v>0</v>
@@ -2662,7 +2664,7 @@
       <c r="G48" s="48"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="1"/>
       <c r="B49" s="40" t="s">
         <v>0</v>
@@ -2680,7 +2682,7 @@
       <c r="G49" s="48"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="1"/>
       <c r="B50" s="40" t="s">
         <v>0</v>
@@ -2698,7 +2700,7 @@
       <c r="G50" s="48"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="1"/>
       <c r="B51" s="40" t="s">
         <v>0</v>
@@ -2716,7 +2718,7 @@
       <c r="G51" s="48"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="1"/>
       <c r="B52" s="40" t="s">
         <v>0</v>
@@ -2734,7 +2736,7 @@
       <c r="G52" s="48"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A53" s="3"/>
       <c r="B53" s="51" t="s">
         <v>0</v>
@@ -2752,19 +2754,19 @@
       <c r="G53" s="52"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="63" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A56" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="47"/>
       <c r="B57" s="35" t="s">
         <v>53</v>
@@ -2782,7 +2784,7 @@
       <c r="G57" s="35"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="1"/>
       <c r="B58" s="40" t="s">
         <v>0</v>
@@ -2800,7 +2802,7 @@
       <c r="G58" s="48"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="1"/>
       <c r="B59" s="40" t="s">
         <v>0</v>
@@ -2818,7 +2820,7 @@
       <c r="G59" s="48"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="1"/>
       <c r="B60" s="40" t="s">
         <v>0</v>
@@ -2836,7 +2838,7 @@
       <c r="G60" s="48"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="1"/>
       <c r="B61" s="40" t="s">
         <v>0</v>
@@ -2854,7 +2856,7 @@
       <c r="G61" s="48"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="1"/>
       <c r="B62" s="40" t="s">
         <v>4</v>
@@ -2872,7 +2874,7 @@
       <c r="G62" s="48"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="3"/>
       <c r="B63" s="51" t="s">
         <v>4</v>
@@ -2890,19 +2892,19 @@
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="63" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A65" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="47"/>
       <c r="B66" s="35" t="s">
         <v>44</v>
@@ -2918,7 +2920,7 @@
       <c r="G66" s="35"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A67" s="56" t="s">
         <v>1</v>
       </c>
@@ -2938,6 +2940,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="A5:D5"/>
@@ -2948,12 +2956,6 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="L1:U2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,18 +2967,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="15" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="39.09375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -3018,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A2" s="20" t="s">
         <v>75</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -3082,14 +3084,16 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13">
+        <v>150</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -3102,7 +3106,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3122,7 +3126,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3142,25 +3146,61 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="C7" s="15">
+        <f>B7-C3+C4+C5+C6</f>
+        <v>150</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:N7" si="0">C7-D3+D4+D5+D6</f>
+        <v>150</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -3174,7 +3214,7 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -3202,7 +3242,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
         <v>78</v>
       </c>
@@ -3234,7 +3274,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -3268,14 +3308,16 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>150</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3300,7 +3342,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>111</v>
       </c>
@@ -3320,7 +3362,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
@@ -3340,7 +3382,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -3360,25 +3402,61 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="C15" s="15">
+        <f>B15-C10+C11+C12+C13+C14</f>
+        <v>150</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15:N15" si="1">C15-D10+D11+D12+D13+D14</f>
+        <v>150</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -3392,7 +3470,7 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.6">
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -3406,7 +3484,7 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -3420,7 +3498,7 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -3462,7 +3540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
@@ -3506,7 +3584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -3515,54 +3593,54 @@
       </c>
       <c r="C20" s="7">
         <f>SUM(C11,C4)</f>
+        <v>300</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" ref="D20:N20" si="2">SUM(D11,D4)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" ref="D20:N20" si="0">SUM(D11,D4)</f>
+      <c r="E20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="7">
-        <f t="shared" si="0"/>
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
+      <c r="I20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I20" s="7">
-        <f t="shared" si="0"/>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="0"/>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="0"/>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="7">
-        <f t="shared" si="0"/>
+      <c r="M20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="7">
-        <f t="shared" si="0"/>
+      <c r="N20" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -3618,7 +3696,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -3627,51 +3705,51 @@
       </c>
       <c r="C22" s="11">
         <f>B22-C20+C21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" ref="D22:N22" si="3">C22-D20+D21</f>
         <v>300</v>
       </c>
-      <c r="D22" s="11">
-        <f t="shared" ref="D22:N22" si="1">C22-D20+D21</f>
+      <c r="E22" s="11">
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="E22" s="11">
-        <f t="shared" si="1"/>
+      <c r="F22" s="11">
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="F22" s="11">
-        <f t="shared" si="1"/>
+      <c r="G22" s="11">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="G22" s="11">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
       <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>1750</v>
+        <f t="shared" si="3"/>
+        <v>1450</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <f t="shared" si="3"/>
+        <v>1700</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="1"/>
-        <v>2200</v>
+        <f t="shared" si="3"/>
+        <v>1900</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="1"/>
-        <v>2450</v>
+        <f t="shared" si="3"/>
+        <v>2150</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="1"/>
-        <v>2700</v>
+        <f t="shared" si="3"/>
+        <v>2400</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>2650</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="3"/>
         <v>2950</v>
-      </c>
-      <c r="N22" s="11">
-        <f t="shared" si="1"/>
-        <v>3250</v>
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -3686,7 +3764,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -20072,7 +20150,7 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A24" s="21" t="s">
         <v>28</v>
       </c>
@@ -20116,7 +20194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
@@ -20124,55 +20202,55 @@
         <v>25</v>
       </c>
       <c r="C25" s="11">
-        <f t="shared" ref="C25:N25" si="2">C5+C12</f>
+        <f t="shared" ref="C25:N25" si="4">C5+C12</f>
         <v>0</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -20216,7 +20294,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -20228,47 +20306,47 @@
         <v>300</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" ref="D27" si="3">C27-D25+D26</f>
+        <f t="shared" ref="D27" si="5">C27-D25+D26</f>
         <v>650</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" ref="E27" si="4">D27-E25+E26</f>
+        <f t="shared" ref="E27" si="6">D27-E25+E26</f>
         <v>1050</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" ref="F27" si="5">E27-F25+F26</f>
+        <f t="shared" ref="F27" si="7">E27-F25+F26</f>
         <v>1350</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" ref="G27" si="6">F27-G25+G26</f>
+        <f t="shared" ref="G27" si="8">F27-G25+G26</f>
         <v>1650</v>
       </c>
       <c r="H27" s="11">
-        <f t="shared" ref="H27" si="7">G27-H25+H26</f>
+        <f t="shared" ref="H27" si="9">G27-H25+H26</f>
         <v>1950</v>
       </c>
       <c r="I27" s="11">
-        <f t="shared" ref="I27" si="8">H27-I25+I26</f>
+        <f t="shared" ref="I27" si="10">H27-I25+I26</f>
         <v>2200</v>
       </c>
       <c r="J27" s="11">
-        <f t="shared" ref="J27" si="9">I27-J25+J26</f>
+        <f t="shared" ref="J27" si="11">I27-J25+J26</f>
         <v>2450</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" ref="K27" si="10">J27-K25+K26</f>
+        <f t="shared" ref="K27" si="12">J27-K25+K26</f>
         <v>2650</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" ref="L27" si="11">K27-L25+L26</f>
+        <f t="shared" ref="L27" si="13">K27-L25+L26</f>
         <v>2900</v>
       </c>
       <c r="M27" s="11">
-        <f t="shared" ref="M27" si="12">L27-M25+M26</f>
+        <f t="shared" ref="M27" si="14">L27-M25+M26</f>
         <v>3200</v>
       </c>
       <c r="N27" s="11">
-        <f t="shared" ref="N27" si="13">M27-N25+N26</f>
+        <f t="shared" ref="N27" si="15">M27-N25+N26</f>
         <v>3500</v>
       </c>
       <c r="T27" s="6"/>
@@ -20284,7 +20362,7 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
     </row>
-    <row r="28" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
@@ -20312,7 +20390,7 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A29" s="21" t="s">
         <v>29</v>
       </c>
@@ -20368,7 +20446,7 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
@@ -20376,51 +20454,51 @@
         <v>25</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" ref="C30:N30" si="14">C6+C13</f>
+        <f t="shared" ref="C30:N30" si="16">C6+C13</f>
         <v>0</v>
       </c>
       <c r="D30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T30" s="7"/>
@@ -20436,7 +20514,7 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>83</v>
       </c>
@@ -20480,7 +20558,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -20492,47 +20570,47 @@
         <v>300</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" ref="D32" si="15">C32-D30+D31</f>
+        <f t="shared" ref="D32" si="17">C32-D30+D31</f>
         <v>600</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" ref="E32" si="16">D32-E30+E31</f>
+        <f t="shared" ref="E32" si="18">D32-E30+E31</f>
         <v>900</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" ref="F32" si="17">E32-F30+F31</f>
+        <f t="shared" ref="F32" si="19">E32-F30+F31</f>
         <v>1200</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" ref="G32" si="18">F32-G30+G31</f>
+        <f t="shared" ref="G32" si="20">F32-G30+G31</f>
         <v>1500</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32" si="19">G32-H30+H31</f>
+        <f t="shared" ref="H32" si="21">G32-H30+H31</f>
         <v>1800</v>
       </c>
       <c r="I32" s="11">
-        <f t="shared" ref="I32" si="20">H32-I30+I31</f>
+        <f t="shared" ref="I32" si="22">H32-I30+I31</f>
         <v>2100</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" ref="J32" si="21">I32-J30+J31</f>
+        <f t="shared" ref="J32" si="23">I32-J30+J31</f>
         <v>2350</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" ref="K32" si="22">J32-K30+K31</f>
+        <f t="shared" ref="K32" si="24">J32-K30+K31</f>
         <v>2550</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" ref="L32" si="23">K32-L30+L31</f>
+        <f t="shared" ref="L32" si="25">K32-L30+L31</f>
         <v>2850</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" ref="M32" si="24">L32-M30+M31</f>
+        <f t="shared" ref="M32" si="26">L32-M30+M31</f>
         <v>3150</v>
       </c>
       <c r="N32" s="11">
-        <f t="shared" ref="N32" si="25">M32-N30+N31</f>
+        <f t="shared" ref="N32" si="27">M32-N30+N31</f>
         <v>3450</v>
       </c>
     </row>
@@ -20561,18 +20639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="15" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.09375" customWidth="1"/>
+    <col min="2" max="2" width="18.09375" customWidth="1"/>
+    <col min="3" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -20614,7 +20692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A2" s="20" t="s">
         <v>69</v>
       </c>
@@ -20658,7 +20736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -20726,7 +20804,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
@@ -20759,7 +20837,7 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A5" s="14" t="s">
         <v>94</v>
       </c>
@@ -20792,7 +20870,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -20850,7 +20928,7 @@
       <c r="O6" s="30"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -20868,7 +20946,7 @@
       <c r="O7" s="30"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A8" s="20" t="s">
         <v>72</v>
       </c>
@@ -20890,7 +20968,7 @@
       <c r="O8" s="30"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -20912,7 +20990,7 @@
       <c r="O9" s="30"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -20935,7 +21013,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
@@ -20958,25 +21036,61 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="C12" s="15">
+        <f t="shared" ref="C12" si="1">B12-C9+C10+C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" ref="D12" si="2">C12-D9+D10+D11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12" si="3">D12-E9+E10+E11</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" ref="F12" si="4">E12-F9+F10+F11</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" ref="G12" si="5">F12-G9+G10+G11</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" ref="H12" si="6">G12-H9+H10+H11</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12" si="7">H12-I9+I10+I11</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" ref="J12" si="8">I12-J9+J10+J11</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" ref="K12" si="9">J12-K9+K10+K11</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" ref="L12" si="10">K12-L9+L10+L11</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" ref="M12" si="11">L12-M9+M10+M11</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" ref="N12" si="12">M12-N9+N10+N11</f>
+        <v>0</v>
+      </c>
       <c r="O12" s="30"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
@@ -20991,7 +21105,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
       <c r="O13" s="30"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -21006,7 +21120,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
       <c r="O14" s="30"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -21021,11 +21135,11 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
       <c r="O15" s="30"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
@@ -21069,7 +21183,7 @@
       <c r="O16" s="30"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="20" t="s">
         <v>73</v>
       </c>
@@ -21115,7 +21229,7 @@
       <c r="O17" s="30"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -21123,57 +21237,57 @@
         <v>25</v>
       </c>
       <c r="C18" s="15">
-        <f t="shared" ref="C18:N18" si="1">C5*0.1</f>
+        <f>C5*0.1</f>
         <v>0</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C18:N18" si="13">D5*0.1</f>
         <v>0</v>
       </c>
       <c r="E18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O18" s="30"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A19" s="14" t="s">
         <v>106</v>
       </c>
@@ -21195,7 +21309,7 @@
       <c r="O19" s="30"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -21207,53 +21321,53 @@
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <f t="shared" ref="D20:N20" si="2">C20-D18+D19</f>
+        <f t="shared" ref="D20:N20" si="14">C20-D18+D19</f>
         <v>0</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O20" s="30"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -21271,7 +21385,7 @@
       <c r="O21" s="30"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
@@ -21293,13 +21407,11 @@
       <c r="O22" s="30"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -21315,7 +21427,7 @@
       <c r="O23" s="30"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -21337,29 +21449,65 @@
       <c r="O24" s="30"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="C25" s="15">
+        <f>B25-C23+C24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" ref="D25:N25" si="15">C25-D23+D24</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="30"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
       <c r="C29" s="40" t="s">
         <v>13</v>
       </c>
@@ -21397,12 +21545,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A30" s="59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -21411,51 +21559,51 @@
         <v>0</v>
       </c>
       <c r="D31" s="60">
-        <f t="shared" ref="D31:N31" si="3">D4*1+D5*1+D19*20</f>
+        <f t="shared" ref="D31:N31" si="16">D4*1+D5*1+D19*20</f>
         <v>0</v>
       </c>
       <c r="E31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N31" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -21464,109 +21612,109 @@
         <v>0</v>
       </c>
       <c r="D32" s="61">
-        <f t="shared" ref="D32:N32" si="4">D31/500</f>
+        <f t="shared" ref="D32:N32" si="17">D31/500</f>
         <v>0</v>
       </c>
       <c r="E32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N32" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="60">
-        <f t="shared" ref="C35:N35" si="5">C10*1+C11*1+C24*10</f>
+        <f t="shared" ref="C35:N35" si="18">C10*1+C11*1+C24*10</f>
         <v>0</v>
       </c>
       <c r="D35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N35" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -21575,47 +21723,47 @@
         <v>0</v>
       </c>
       <c r="D36" s="61">
-        <f t="shared" ref="D36:N36" si="6">(D35/500)</f>
+        <f t="shared" ref="D36:N36" si="19">(D35/500)</f>
         <v>0</v>
       </c>
       <c r="E36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N36" s="61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21638,19 +21786,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="14" width="14.5546875" customWidth="1"/>
+    <col min="3" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -21692,7 +21840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
@@ -21736,7 +21884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
@@ -21780,7 +21928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>97</v>
       </c>
@@ -21800,7 +21948,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="11"/>
@@ -21816,7 +21964,7 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -21860,7 +22008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -21904,7 +22052,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -21926,7 +22074,7 @@
       <c r="O8" s="31"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>99</v>
       </c>
@@ -21948,7 +22096,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11"/>
@@ -21966,7 +22114,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
         <v>62</v>
       </c>
@@ -22012,7 +22160,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -22058,7 +22206,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
@@ -22080,23 +22228,23 @@
       <c r="O13" s="31"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
       <c r="O14" s="31"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
       <c r="O15" s="31"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
       <c r="O16" s="31"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.6">
       <c r="O17" s="31"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -22140,7 +22288,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A19" s="19" t="s">
         <v>64</v>
       </c>
@@ -22186,7 +22334,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -22208,7 +22356,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -22230,7 +22378,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>102</v>
       </c>
@@ -22264,25 +22412,61 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="C23" s="15">
+        <f>B23-C20+C21+C22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:N23" si="0">C23-D20+D21+D22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="31"/>
       <c r="P23" s="12"/>
       <c r="R23" s="7"/>
@@ -22298,7 +22482,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -22328,7 +22512,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A25" s="19" t="s">
         <v>66</v>
       </c>
@@ -22374,7 +22558,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
@@ -22396,7 +22580,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
@@ -22418,7 +22602,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
@@ -22440,33 +22624,69 @@
       <c r="O28" s="31"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="C29" s="15">
+        <f>B29-C26+C27+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:N29" si="1">C29-D26+D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O29" s="31"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.6">
       <c r="O30" s="31"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.6">
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -22480,7 +22700,7 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
     </row>
-    <row r="33" spans="18:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:29" x14ac:dyDescent="0.6">
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -22494,7 +22714,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="18:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:29" x14ac:dyDescent="0.6">
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -22524,14 +22744,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="72" t="s">
         <v>85</v>
       </c>
@@ -22542,13 +22762,13 @@
       <c r="F1" s="75"/>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="E2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="24" t="s">
         <v>86</v>
       </c>
@@ -22561,7 +22781,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="24" t="s">
         <v>87</v>
       </c>
@@ -22578,7 +22798,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="24" t="s">
         <v>88</v>
       </c>
@@ -22595,7 +22815,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="24" t="s">
         <v>89</v>
       </c>
@@ -22610,20 +22830,20 @@
       <c r="E6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="25">
         <f>SUM('Milk Transportation'!C4:N4)*0.03+SUM('Milk Transportation'!C5:N5)*0.02+SUM('Milk Transportation'!C6:N6)*0.1+SUM('Milk Transportation'!C11:N11)*0.05+SUM('Milk Transportation'!C12:N12)*0.07+SUM('Milk Transportation'!C13:N13)*0.09+SUM(Distribution!C8:N8)*0.03+SUM(Distribution!C9:N9)*0.09+SUM(Distribution!C21:N21)*0.04+SUM(Distribution!C22:N22)*0.09+SUM(Distribution!C28:N28)*0.13+SUM(Distribution!C27:N27)*0.08</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E7" s="57" t="s">
         <v>133</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="24" t="s">
         <v>92</v>
       </c>
@@ -22637,28 +22857,28 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="28">
         <f>B3-B4-B5-B6-B7</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="31">
         <f>MAX('Milk Transportation'!C7:N7,'Milk Transportation'!C15:N15)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E10" s="1"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -22668,7 +22888,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
@@ -22678,7 +22898,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E13" s="3" t="s">
         <v>138</v>
       </c>
@@ -22726,13 +22946,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="105.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.21875" customWidth="1"/>
+    <col min="1" max="1" width="105.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="32" t="s">
         <v>119</v>
       </c>
@@ -22740,37 +22960,37 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="33"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="33" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="33"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="33" t="s">
         <v>126</v>
       </c>

--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geukens Arno\Desktop\ProductInnovatie\ProductInnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F03E6-13BB-4375-9F23-8849C184ACDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3C1C1-3647-4E84-8CE8-465F5DA33443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20077" windowHeight="10769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="143">
   <si>
     <t>Milk_Pack</t>
   </si>
@@ -957,13 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -975,6 +969,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -983,9 +986,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1443,92 +1443,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="G4" s="65" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="G4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="L4" s="65" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="L4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-      <c r="R4" s="65" t="s">
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="R4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="67"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="65"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="G5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="L5" s="1"/>
       <c r="M5" s="35" t="s">
         <v>30</v>
@@ -1766,18 +1766,18 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="G11" s="62" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
       <c r="L11" s="37" t="s">
         <v>18</v>
       </c>
@@ -2055,16 +2055,16 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="47"/>
@@ -2093,7 +2093,7 @@
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="69" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2110,7 +2110,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A21" s="68"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="40" t="s">
         <v>30</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A22" s="68"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="40" t="s">
         <v>31</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="X23" s="40"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A24" s="68"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="X24" s="41"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="40" t="s">
         <v>32</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -2275,7 +2275,7 @@
       <c r="X27" s="41"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A28" s="68"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="40" t="s">
         <v>42</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A29" s="68"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="40" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="X29" s="40"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A30" s="68"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="40" t="s">
         <v>41</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="X30" s="41"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="40" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A32" s="68"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A34" s="70"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
@@ -2420,16 +2420,16 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
@@ -2755,16 +2755,16 @@
       <c r="H53" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="67"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="65"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="47"/>
@@ -2893,16 +2893,16 @@
       <c r="H63" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="67"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="47"/>
@@ -2940,12 +2940,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="L1:U2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="A5:D5"/>
@@ -2956,6 +2950,12 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,7 +2968,7 @@
   <dimension ref="A1:XFD32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
@@ -3071,18 +3071,54 @@
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="C3" s="15">
+        <f>'Production Planning'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <f>'Production Planning'!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <f>'Production Planning'!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <f>'Production Planning'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <f>'Production Planning'!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <f>'Production Planning'!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <f>'Production Planning'!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f>'Production Planning'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>'Production Planning'!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <f>'Production Planning'!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="15">
+        <f>'Production Planning'!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
+        <f>'Production Planning'!N4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
@@ -3281,18 +3317,54 @@
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="C10" s="15">
+        <f>'Production Planning'!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <f>'Production Planning'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <f>'Production Planning'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f>'Production Planning'!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>'Production Planning'!G10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f>'Production Planning'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <f>'Production Planning'!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <f>'Production Planning'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f>'Production Planning'!K10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <f>'Production Planning'!L10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <f>'Production Planning'!M10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <f>'Production Planning'!N10</f>
+        <v>0</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -20450,9 +20522,7 @@
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="11">
         <f t="shared" ref="C30:N30" si="16">C6+C13</f>
         <v>0</v>
@@ -20640,7 +20710,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
@@ -20975,18 +21045,54 @@
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="C9" s="15">
+        <f>Distribution!C27+Distribution!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <f>Distribution!D27+Distribution!D33</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <f>Distribution!E27+Distribution!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <f>Distribution!F27+Distribution!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <f>Distribution!G27+Distribution!G33</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <f>Distribution!H27+Distribution!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <f>Distribution!I27+Distribution!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f>Distribution!J27+Distribution!J33</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <f>Distribution!K27+Distribution!K33</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f>Distribution!L27+Distribution!L33</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f>Distribution!M27+Distribution!M33</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f>Distribution!N27+Distribution!N33</f>
+        <v>0</v>
+      </c>
       <c r="O9" s="30"/>
       <c r="Q9" s="7"/>
     </row>
@@ -21241,7 +21347,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="C18:N18" si="13">D5*0.1</f>
+        <f t="shared" ref="D18:N18" si="13">D5*0.1</f>
         <v>0</v>
       </c>
       <c r="E18" s="15">
@@ -21412,18 +21518,54 @@
         <v>81</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="C23" s="15">
+        <f>C11*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" ref="D23:N23" si="15">D11*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="O23" s="30"/>
       <c r="Q23" s="7"/>
     </row>
@@ -21461,47 +21603,47 @@
         <v>0</v>
       </c>
       <c r="D25" s="15">
-        <f t="shared" ref="D25:N25" si="15">C25-D23+D24</f>
+        <f t="shared" ref="D25:N25" si="16">C25-D23+D24</f>
         <v>0</v>
       </c>
       <c r="E25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N25" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O25" s="30"/>
@@ -21559,47 +21701,47 @@
         <v>0</v>
       </c>
       <c r="D31" s="60">
-        <f t="shared" ref="D31:N31" si="16">D4*1+D5*1+D19*20</f>
+        <f t="shared" ref="D31:N31" si="17">D4*1+D5*1+D19*20</f>
         <v>0</v>
       </c>
       <c r="E31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N31" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -21612,47 +21754,47 @@
         <v>0</v>
       </c>
       <c r="D32" s="61">
-        <f t="shared" ref="D32:N32" si="17">D31/500</f>
+        <f t="shared" ref="D32:N32" si="18">D31/500</f>
         <v>0</v>
       </c>
       <c r="E32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N32" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -21666,51 +21808,51 @@
         <v>140</v>
       </c>
       <c r="C35" s="60">
-        <f t="shared" ref="C35:N35" si="18">C10*1+C11*1+C24*10</f>
+        <f t="shared" ref="C35:N35" si="19">C10*1+C11*1+C24*10</f>
         <v>0</v>
       </c>
       <c r="D35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N35" s="60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -21723,47 +21865,47 @@
         <v>0</v>
       </c>
       <c r="D36" s="61">
-        <f t="shared" ref="D36:N36" si="19">(D35/500)</f>
+        <f t="shared" ref="D36:N36" si="20">(D35/500)</f>
         <v>0</v>
       </c>
       <c r="E36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N36" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -21786,8 +21928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:N29"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>

--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geukens Arno\Desktop\ProductInnovatie\ProductInnovatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obit9\Documents\GitHub\Productinnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3C1C1-3647-4E84-8CE8-465F5DA33443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB9D8C3-444E-4E38-A082-C513ACE5DE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20077" windowHeight="10769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -957,7 +957,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -969,15 +975,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -986,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,11 +1005,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
-    <cellStyle name="Berekening" xfId="3" builtinId="22"/>
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
-    <cellStyle name="Procent" xfId="5" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1429,106 +1429,106 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.09375" customWidth="1"/>
-    <col min="4" max="4" width="13.90234375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="G4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="G4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="L4" s="63" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="L4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="R4" s="63" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="R4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="67"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="L5" s="1"/>
       <c r="M5" s="35" t="s">
         <v>30</v>
@@ -1550,7 +1550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="36"/>
       <c r="D8" s="2"/>
@@ -1685,7 +1685,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
       <c r="G10" s="1"/>
@@ -1765,19 +1765,19 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="G11" s="66" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="G11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="L11" s="37" t="s">
         <v>18</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="36"/>
       <c r="D14" s="2"/>
@@ -1937,7 +1937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2025,7 +2025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L17" s="42" t="s">
         <v>24</v>
       </c>
@@ -2054,19 +2054,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="35" t="s">
         <v>44</v>
@@ -2092,8 +2092,8 @@
       </c>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2109,8 +2109,8 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="68"/>
       <c r="B21" s="40" t="s">
         <v>30</v>
       </c>
@@ -2124,8 +2124,8 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="68"/>
       <c r="B22" s="40" t="s">
         <v>31</v>
       </c>
@@ -2139,8 +2139,8 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A23" s="69"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="68"/>
       <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
@@ -2166,8 +2166,8 @@
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A24" s="69"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="68"/>
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2195,8 @@
       <c r="W24" s="41"/>
       <c r="X24" s="41"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A25" s="69"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="68"/>
       <c r="B25" s="40" t="s">
         <v>32</v>
       </c>
@@ -2214,8 +2214,8 @@
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A26" s="69"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="68"/>
       <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A27" s="70" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -2274,8 +2274,8 @@
       <c r="W27" s="41"/>
       <c r="X27" s="41"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A28" s="69"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="68"/>
       <c r="B28" s="40" t="s">
         <v>42</v>
       </c>
@@ -2291,8 +2291,8 @@
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A29" s="69"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="68"/>
       <c r="B29" s="40" t="s">
         <v>41</v>
       </c>
@@ -2318,8 +2318,8 @@
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A30" s="69"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="68"/>
       <c r="B30" s="40" t="s">
         <v>41</v>
       </c>
@@ -2344,8 +2344,8 @@
       <c r="W30" s="41"/>
       <c r="X30" s="41"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A31" s="69"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="68"/>
       <c r="B31" s="40" t="s">
         <v>45</v>
       </c>
@@ -2359,8 +2359,8 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A32" s="69"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="68"/>
       <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2373,8 @@
       <c r="H32" s="2"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A33" s="69"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="68"/>
       <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
@@ -2387,8 +2387,8 @@
       <c r="H33" s="2"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A34" s="71"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="70"/>
       <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" s="40"/>
       <c r="D35" s="40"/>
       <c r="F35" s="48"/>
@@ -2419,22 +2419,22 @@
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A36" s="63" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="35" t="s">
         <v>53</v>
@@ -2453,7 +2453,7 @@
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="40" t="s">
         <v>1</v>
@@ -2474,7 +2474,7 @@
       <c r="J38" s="40"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="40" t="s">
         <v>1</v>
@@ -2495,7 +2495,7 @@
       <c r="J39" s="40"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="40" t="s">
         <v>1</v>
@@ -2516,7 +2516,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="40" t="s">
         <v>1</v>
@@ -2537,7 +2537,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="40" t="s">
         <v>1</v>
@@ -2556,7 +2556,7 @@
       <c r="H42" s="2"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="40" t="s">
         <v>1</v>
@@ -2574,7 +2574,7 @@
       <c r="G43" s="48"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="40" t="s">
         <v>1</v>
@@ -2592,7 +2592,7 @@
       <c r="G44" s="48"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="40" t="s">
         <v>4</v>
@@ -2610,7 +2610,7 @@
       <c r="G45" s="48"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="40" t="s">
         <v>4</v>
@@ -2628,7 +2628,7 @@
       <c r="G46" s="48"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="40" t="s">
         <v>0</v>
@@ -2646,7 +2646,7 @@
       <c r="G47" s="48"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="40" t="s">
         <v>0</v>
@@ -2664,7 +2664,7 @@
       <c r="G48" s="48"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="40" t="s">
         <v>0</v>
@@ -2682,7 +2682,7 @@
       <c r="G49" s="48"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="40" t="s">
         <v>0</v>
@@ -2700,7 +2700,7 @@
       <c r="G50" s="48"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="40" t="s">
         <v>0</v>
@@ -2718,7 +2718,7 @@
       <c r="G51" s="48"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="40" t="s">
         <v>0</v>
@@ -2736,7 +2736,7 @@
       <c r="G52" s="48"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="51" t="s">
         <v>0</v>
@@ -2754,19 +2754,19 @@
       <c r="G53" s="52"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A56" s="63" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="35" t="s">
         <v>53</v>
@@ -2784,7 +2784,7 @@
       <c r="G57" s="35"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="40" t="s">
         <v>0</v>
@@ -2802,7 +2802,7 @@
       <c r="G58" s="48"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="40" t="s">
         <v>0</v>
@@ -2820,7 +2820,7 @@
       <c r="G59" s="48"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="40" t="s">
         <v>0</v>
@@ -2838,7 +2838,7 @@
       <c r="G60" s="48"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="40" t="s">
         <v>0</v>
@@ -2856,7 +2856,7 @@
       <c r="G61" s="48"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="40" t="s">
         <v>4</v>
@@ -2874,7 +2874,7 @@
       <c r="G62" s="48"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="51" t="s">
         <v>4</v>
@@ -2892,19 +2892,19 @@
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A65" s="63" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="47"/>
       <c r="B66" s="35" t="s">
         <v>44</v>
@@ -2920,7 +2920,7 @@
       <c r="G66" s="35"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="56" t="s">
         <v>1</v>
       </c>
@@ -2940,6 +2940,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="A5:D5"/>
@@ -2950,12 +2956,6 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="L1:U2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,18 +2967,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.09375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="15" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="15" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -3020,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>75</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -3278,7 +3278,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>78</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>111</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -3556,7 +3556,7 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -3570,7 +3570,7 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -3612,7 +3612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -20222,7 +20222,7 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>28</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -20434,7 +20434,7 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
     </row>
-    <row r="28" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
@@ -20462,7 +20462,7 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>29</v>
       </c>
@@ -20518,7 +20518,7 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
@@ -20584,7 +20584,7 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>83</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -20713,14 +20713,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.09375" customWidth="1"/>
-    <col min="2" max="2" width="18.09375" customWidth="1"/>
-    <col min="3" max="15" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -20762,7 +20762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>69</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -20874,7 +20874,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
@@ -20907,7 +20907,7 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>94</v>
       </c>
@@ -20940,7 +20940,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -20998,7 +20998,7 @@
       <c r="O6" s="30"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -21016,7 +21016,7 @@
       <c r="O7" s="30"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>72</v>
       </c>
@@ -21038,7 +21038,7 @@
       <c r="O8" s="30"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -21096,7 +21096,7 @@
       <c r="O9" s="30"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -21119,7 +21119,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
@@ -21142,7 +21142,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -21211,7 +21211,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O13" s="30"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -21226,7 +21226,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O14" s="30"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -21241,11 +21241,11 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="O15" s="30"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
@@ -21289,7 +21289,7 @@
       <c r="O16" s="30"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>73</v>
       </c>
@@ -21335,7 +21335,7 @@
       <c r="O17" s="30"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -21393,7 +21393,7 @@
       <c r="O18" s="30"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>106</v>
       </c>
@@ -21415,7 +21415,7 @@
       <c r="O19" s="30"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -21473,7 +21473,7 @@
       <c r="O20" s="30"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -21491,7 +21491,7 @@
       <c r="O21" s="30"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
@@ -21513,7 +21513,7 @@
       <c r="O22" s="30"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>81</v>
       </c>
@@ -21569,7 +21569,7 @@
       <c r="O23" s="30"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -21591,7 +21591,7 @@
       <c r="O24" s="30"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -21649,7 +21649,7 @@
       <c r="O25" s="30"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C29" s="40" t="s">
         <v>13</v>
       </c>
@@ -21687,12 +21687,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -21798,12 +21798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -21928,19 +21928,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="14" width="14.5703125" customWidth="1"/>
+    <col min="3" max="14" width="14.5546875" customWidth="1"/>
     <col min="15" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -21982,7 +21982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>97</v>
       </c>
@@ -22090,7 +22090,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="11"/>
@@ -22106,7 +22106,7 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -22216,7 +22216,7 @@
       <c r="O8" s="31"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>99</v>
       </c>
@@ -22238,7 +22238,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11"/>
@@ -22256,7 +22256,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>62</v>
       </c>
@@ -22302,7 +22302,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -22348,7 +22348,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
@@ -22370,23 +22370,23 @@
       <c r="O13" s="31"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O14" s="31"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O15" s="31"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16" s="31"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="O17" s="31"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -22430,7 +22430,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>64</v>
       </c>
@@ -22476,29 +22476,65 @@
       <c r="O19" s="31"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="C20" s="15">
+        <f>C4+C8</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20:N20" si="0">D4+D8</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O20" s="31"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -22520,7 +22556,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>102</v>
       </c>
@@ -22554,7 +22590,7 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -22566,47 +22602,47 @@
         <v>0</v>
       </c>
       <c r="D23" s="15">
-        <f t="shared" ref="D23:N23" si="0">C23-D20+D21+D22</f>
+        <f t="shared" ref="D23:N23" si="1">C23-D20+D21+D22</f>
         <v>0</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O23" s="31"/>
@@ -22624,7 +22660,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -22654,7 +22690,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>66</v>
       </c>
@@ -22700,29 +22736,65 @@
       <c r="O25" s="31"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="C26" s="15">
+        <f>C9+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" ref="D26:N26" si="2">D9+D13</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O26" s="31"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
@@ -22744,7 +22816,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
@@ -22766,7 +22838,7 @@
       <c r="O28" s="31"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -22778,57 +22850,57 @@
         <v>0</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:N29" si="1">C29-D26+D27+D28</f>
+        <f t="shared" ref="D29:N29" si="3">C29-D26+D27+D28</f>
         <v>0</v>
       </c>
       <c r="E29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="31"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="O30" s="31"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -22842,7 +22914,7 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
     </row>
-    <row r="33" spans="18:29" x14ac:dyDescent="0.6">
+    <row r="33" spans="18:29" x14ac:dyDescent="0.3">
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -22856,7 +22928,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="18:29" x14ac:dyDescent="0.6">
+    <row r="34" spans="18:29" x14ac:dyDescent="0.3">
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -22886,14 +22958,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>85</v>
       </c>
@@ -22904,13 +22976,13 @@
       <c r="F1" s="75"/>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="E2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>86</v>
       </c>
@@ -22923,7 +22995,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>87</v>
       </c>
@@ -22940,7 +23012,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>88</v>
       </c>
@@ -22957,7 +23029,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>89</v>
       </c>
@@ -22972,7 +23044,7 @@
       <c r="E6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>90</v>
       </c>
@@ -22985,7 +23057,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>92</v>
       </c>
@@ -22999,7 +23071,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>91</v>
       </c>
@@ -23016,11 +23088,11 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -23030,7 +23102,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
@@ -23040,7 +23112,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="3" t="s">
         <v>138</v>
       </c>
@@ -23088,13 +23160,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="105.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.234375" customWidth="1"/>
+    <col min="1" max="1" width="105.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>119</v>
       </c>
@@ -23102,37 +23174,37 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="33"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="33"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>126</v>
       </c>

--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obit9\Documents\GitHub\Productinnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB9D8C3-444E-4E38-A082-C513ACE5DE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48972B0A-3ECD-46C5-AE14-F948BA0CBA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2968,7 +2968,7 @@
   <dimension ref="A1:XFD32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3128,19 +3128,41 @@
         <v>60</v>
       </c>
       <c r="C4" s="13">
-        <v>150</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+        <v>300</v>
+      </c>
+      <c r="D4" s="13">
+        <v>300</v>
+      </c>
+      <c r="E4" s="13">
+        <v>300</v>
+      </c>
+      <c r="F4" s="13">
+        <v>300</v>
+      </c>
+      <c r="G4" s="13">
+        <v>300</v>
+      </c>
+      <c r="H4" s="13">
+        <v>250</v>
+      </c>
+      <c r="I4" s="13">
+        <v>250</v>
+      </c>
+      <c r="J4" s="13">
+        <v>200</v>
+      </c>
+      <c r="K4" s="13">
+        <v>250</v>
+      </c>
+      <c r="L4" s="13">
+        <v>250</v>
+      </c>
+      <c r="M4" s="13">
+        <v>250</v>
+      </c>
+      <c r="N4" s="13">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -3149,18 +3171,42 @@
       <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="C5" s="13">
+        <v>300</v>
+      </c>
+      <c r="D5" s="13">
+        <v>350</v>
+      </c>
+      <c r="E5" s="13">
+        <v>400</v>
+      </c>
+      <c r="F5" s="13">
+        <v>300</v>
+      </c>
+      <c r="G5" s="13">
+        <v>300</v>
+      </c>
+      <c r="H5" s="13">
+        <v>300</v>
+      </c>
+      <c r="I5" s="13">
+        <v>250</v>
+      </c>
+      <c r="J5" s="13">
+        <v>250</v>
+      </c>
+      <c r="K5" s="13">
+        <v>200</v>
+      </c>
+      <c r="L5" s="13">
+        <v>250</v>
+      </c>
+      <c r="M5" s="13">
+        <v>300</v>
+      </c>
+      <c r="N5" s="13">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3169,18 +3215,42 @@
       <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -3191,51 +3261,51 @@
       </c>
       <c r="C7" s="15">
         <f>B7-C3+C4+C5+C6</f>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" ref="D7:N7" si="0">C7-D3+D4+D5+D6</f>
-        <v>150</v>
+        <v>1250</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>1950</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>2550</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>3150</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>3700</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>4200</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>4650</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>5100</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>6150</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>6750</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -3388,19 +3458,41 @@
         <v>79</v>
       </c>
       <c r="C11" s="13">
-        <v>150</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -3421,18 +3513,42 @@
       <c r="B12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -3441,18 +3557,42 @@
       <c r="B13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="C13" s="13">
+        <v>300</v>
+      </c>
+      <c r="D13" s="13">
+        <v>300</v>
+      </c>
+      <c r="E13" s="13">
+        <v>300</v>
+      </c>
+      <c r="F13" s="13">
+        <v>300</v>
+      </c>
+      <c r="G13" s="13">
+        <v>300</v>
+      </c>
+      <c r="H13" s="13">
+        <v>300</v>
+      </c>
+      <c r="I13" s="13">
+        <v>300</v>
+      </c>
+      <c r="J13" s="13">
+        <v>250</v>
+      </c>
+      <c r="K13" s="13">
+        <v>200</v>
+      </c>
+      <c r="L13" s="13">
+        <v>300</v>
+      </c>
+      <c r="M13" s="13">
+        <v>300</v>
+      </c>
+      <c r="N13" s="13">
+        <v>300</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -3461,18 +3601,42 @@
       <c r="B14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -3483,51 +3647,51 @@
       </c>
       <c r="C15" s="15">
         <f>B15-C10+C11+C12+C13+C14</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" ref="D15:N15" si="1">C15-D10+D11+D12+D13+D14</f>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>2100</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>2350</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>2550</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>2850</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>3150</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>3450</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -3669,47 +3833,47 @@
       </c>
       <c r="D20" s="7">
         <f t="shared" ref="D20:N20" si="2">SUM(D11,D4)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:16384" x14ac:dyDescent="0.3">
@@ -3781,47 +3945,47 @@
       </c>
       <c r="D22" s="11">
         <f t="shared" ref="D22:N22" si="3">C22-D20+D21</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="3"/>
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="K22" s="11">
         <f t="shared" si="3"/>
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="L22" s="11">
         <f t="shared" si="3"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="3"/>
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="N22" s="11">
         <f t="shared" si="3"/>
-        <v>2950</v>
+        <v>0</v>
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
@@ -20275,51 +20439,51 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" ref="C25:N25" si="4">C5+C12</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:16384" x14ac:dyDescent="0.3">
@@ -20375,51 +20539,51 @@
       </c>
       <c r="C27" s="11">
         <f>B27-C25+C26</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" ref="D27" si="5">C27-D25+D26</f>
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" ref="E27" si="6">D27-E25+E26</f>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" ref="F27" si="7">E27-F25+F26</f>
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" ref="G27" si="8">F27-G25+G26</f>
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" ref="H27" si="9">G27-H25+H26</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ref="I27" si="10">H27-I25+I26</f>
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" ref="J27" si="11">I27-J25+J26</f>
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="K27" s="11">
         <f t="shared" ref="K27" si="12">J27-K25+K26</f>
-        <v>2650</v>
+        <v>0</v>
       </c>
       <c r="L27" s="11">
         <f t="shared" ref="L27" si="13">K27-L25+L26</f>
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" ref="M27" si="14">L27-M25+M26</f>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="11">
         <f t="shared" ref="N27" si="15">M27-N25+N26</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -20525,51 +20689,51 @@
       <c r="B30" s="6"/>
       <c r="C30" s="11">
         <f t="shared" ref="C30:N30" si="16">C6+C13</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
@@ -20637,51 +20801,51 @@
       </c>
       <c r="C32" s="11">
         <f>B32-C30+C31</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" ref="D32" si="17">C32-D30+D31</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" ref="E32" si="18">D32-E30+E31</f>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" ref="F32" si="19">E32-F30+F31</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" ref="G32" si="20">F32-G30+G31</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" ref="H32" si="21">G32-H30+H31</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ref="I32" si="22">H32-I30+I31</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" ref="J32" si="23">I32-J30+J31</f>
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="K32" s="11">
         <f t="shared" ref="K32" si="24">J32-K30+K31</f>
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="L32" s="11">
         <f t="shared" ref="L32" si="25">K32-L30+L31</f>
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" ref="M32" si="26">L32-M30+M31</f>
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="N32" s="11">
         <f t="shared" ref="N32" si="27">M32-N30+N31</f>
-        <v>3450</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20710,7 +20874,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20815,51 +20979,51 @@
       </c>
       <c r="C3" s="15">
         <f>Distribution!C21+Distribution!C27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D3" s="15">
         <f>Distribution!D21+Distribution!D27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E3" s="15">
         <f>Distribution!E21+Distribution!E27</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F3" s="15">
         <f>Distribution!F21+Distribution!F27</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G3" s="15">
         <f>Distribution!G21+Distribution!G27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" s="15">
         <f>Distribution!H21+Distribution!H27</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I3" s="15">
         <f>Distribution!I21+Distribution!I27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J3" s="15">
         <f>Distribution!J21+Distribution!J27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K3" s="15">
         <f>Distribution!K21+Distribution!K27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L3" s="15">
         <f>Distribution!L21+Distribution!L27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M3" s="15">
         <f>Distribution!M21+Distribution!M27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N3" s="15">
         <f>Distribution!N21+Distribution!N27</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -20914,18 +21078,42 @@
       <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="C5" s="13">
+        <v>500</v>
+      </c>
+      <c r="D5" s="13">
+        <v>500</v>
+      </c>
+      <c r="E5" s="13">
+        <v>450</v>
+      </c>
+      <c r="F5" s="13">
+        <v>450</v>
+      </c>
+      <c r="G5" s="13">
+        <v>500</v>
+      </c>
+      <c r="H5" s="13">
+        <v>250</v>
+      </c>
+      <c r="I5" s="13">
+        <v>500</v>
+      </c>
+      <c r="J5" s="13">
+        <v>500</v>
+      </c>
+      <c r="K5" s="13">
+        <v>500</v>
+      </c>
+      <c r="L5" s="13">
+        <v>500</v>
+      </c>
+      <c r="M5" s="13">
+        <v>500</v>
+      </c>
+      <c r="N5" s="13">
+        <v>500</v>
+      </c>
       <c r="O5" s="30"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -21344,51 +21532,51 @@
       </c>
       <c r="C18" s="15">
         <f>C5*0.1</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D18:N18" si="13">D5*0.1</f>
-        <v>0</v>
+        <f t="shared" ref="D18:N19" si="13">D5*0.1</f>
+        <v>50</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N18" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O18" s="30"/>
       <c r="Q18" s="7"/>
@@ -21400,18 +21588,42 @@
       <c r="B19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="C19" s="13">
+        <v>50</v>
+      </c>
+      <c r="D19" s="13">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45</v>
+      </c>
+      <c r="G19" s="13">
+        <v>50</v>
+      </c>
+      <c r="H19" s="13">
+        <v>25</v>
+      </c>
+      <c r="I19" s="13">
+        <v>50</v>
+      </c>
+      <c r="J19" s="13">
+        <v>50</v>
+      </c>
+      <c r="K19" s="13">
+        <v>50</v>
+      </c>
+      <c r="L19" s="13">
+        <v>50</v>
+      </c>
+      <c r="M19" s="13">
+        <v>50</v>
+      </c>
+      <c r="N19" s="13">
+        <v>50</v>
+      </c>
       <c r="O19" s="30"/>
       <c r="Q19" s="7"/>
     </row>
@@ -21698,51 +21910,51 @@
       </c>
       <c r="C31" s="60">
         <f>C4*1+C5*1+C19*20</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D31" s="60">
         <f t="shared" ref="D31:N31" si="17">D4*1+D5*1+D19*20</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="F31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="M31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N31" s="60">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -21751,51 +21963,51 @@
       </c>
       <c r="C32" s="61">
         <f>C31/500</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="61">
         <f t="shared" ref="D32:N32" si="18">D31/500</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="61">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -21928,8 +22140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:N26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22077,18 +22289,42 @@
       <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="C4" s="12">
+        <v>300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>200</v>
+      </c>
+      <c r="F4" s="12">
+        <v>200</v>
+      </c>
+      <c r="G4" s="12">
+        <v>250</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <v>300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>350</v>
+      </c>
+      <c r="K4" s="12">
+        <v>300</v>
+      </c>
+      <c r="L4" s="12">
+        <v>350</v>
+      </c>
+      <c r="M4" s="12">
+        <v>300</v>
+      </c>
+      <c r="N4" s="12">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -22164,7 +22400,7 @@
         <v>250</v>
       </c>
       <c r="E7" s="34">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F7" s="34">
         <v>250</v>
@@ -22173,19 +22409,19 @@
         <v>250</v>
       </c>
       <c r="H7" s="34">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="I7" s="34">
         <v>250</v>
       </c>
       <c r="J7" s="34">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K7" s="34">
         <v>250</v>
       </c>
       <c r="L7" s="34">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M7" s="34">
         <v>250</v>
@@ -22201,18 +22437,42 @@
       <c r="B8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="C8" s="12">
+        <v>200</v>
+      </c>
+      <c r="D8" s="12">
+        <v>200</v>
+      </c>
+      <c r="E8" s="12">
+        <v>250</v>
+      </c>
+      <c r="F8" s="12">
+        <v>250</v>
+      </c>
+      <c r="G8" s="12">
+        <v>250</v>
+      </c>
+      <c r="H8" s="12">
+        <v>250</v>
+      </c>
+      <c r="I8" s="12">
+        <v>200</v>
+      </c>
+      <c r="J8" s="12">
+        <v>150</v>
+      </c>
+      <c r="K8" s="12">
+        <v>200</v>
+      </c>
+      <c r="L8" s="12">
+        <v>150</v>
+      </c>
+      <c r="M8" s="12">
+        <v>200</v>
+      </c>
+      <c r="N8" s="12">
+        <v>200</v>
+      </c>
       <c r="O8" s="31"/>
       <c r="P8" s="12"/>
     </row>
@@ -22223,18 +22483,42 @@
       <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="C9" s="12">
+        <v>50</v>
+      </c>
+      <c r="D9" s="12">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>50</v>
+      </c>
+      <c r="J9" s="12">
+        <v>100</v>
+      </c>
+      <c r="K9" s="12">
+        <v>50</v>
+      </c>
+      <c r="L9" s="12">
+        <v>100</v>
+      </c>
+      <c r="M9" s="12">
+        <v>50</v>
+      </c>
+      <c r="N9" s="12">
+        <v>50</v>
+      </c>
       <c r="O9" s="31"/>
       <c r="P9" s="12"/>
     </row>
@@ -22355,18 +22639,42 @@
       <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="C13" s="12">
+        <v>300</v>
+      </c>
+      <c r="D13" s="12">
+        <v>300</v>
+      </c>
+      <c r="E13" s="12">
+        <v>450</v>
+      </c>
+      <c r="F13" s="12">
+        <v>400</v>
+      </c>
+      <c r="G13" s="12">
+        <v>350</v>
+      </c>
+      <c r="H13" s="12">
+        <v>450</v>
+      </c>
+      <c r="I13" s="12">
+        <v>300</v>
+      </c>
+      <c r="J13" s="12">
+        <v>300</v>
+      </c>
+      <c r="K13" s="12">
+        <v>300</v>
+      </c>
+      <c r="L13" s="12">
+        <v>300</v>
+      </c>
+      <c r="M13" s="12">
+        <v>300</v>
+      </c>
+      <c r="N13" s="12">
+        <v>300</v>
+      </c>
       <c r="O13" s="31"/>
       <c r="P13" s="12"/>
     </row>
@@ -22485,51 +22793,51 @@
       </c>
       <c r="C20" s="15">
         <f>C4+C8</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D20" s="15">
         <f t="shared" ref="D20:N20" si="0">D4+D8</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O20" s="31"/>
       <c r="P20" s="12"/>
@@ -22541,18 +22849,42 @@
       <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="C21" s="12">
+        <v>500</v>
+      </c>
+      <c r="D21" s="12">
+        <v>500</v>
+      </c>
+      <c r="E21" s="12">
+        <v>450</v>
+      </c>
+      <c r="F21" s="12">
+        <v>450</v>
+      </c>
+      <c r="G21" s="12">
+        <v>500</v>
+      </c>
+      <c r="H21" s="12">
+        <v>250</v>
+      </c>
+      <c r="I21" s="12">
+        <v>500</v>
+      </c>
+      <c r="J21" s="12">
+        <v>500</v>
+      </c>
+      <c r="K21" s="12">
+        <v>500</v>
+      </c>
+      <c r="L21" s="12">
+        <v>500</v>
+      </c>
+      <c r="M21" s="12">
+        <v>500</v>
+      </c>
+      <c r="N21" s="12">
+        <v>500</v>
+      </c>
       <c r="O21" s="31"/>
       <c r="P21" s="12"/>
     </row>
@@ -22563,18 +22895,42 @@
       <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
       <c r="O22" s="31"/>
       <c r="P22" s="12"/>
       <c r="R22" s="6"/>
@@ -22745,51 +23101,51 @@
       </c>
       <c r="C26" s="15">
         <f>C9+C13</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:N26" si="2">D9+D13</f>
-        <v>0</v>
+        <f t="shared" ref="D26:N28" si="2">D9+D13</f>
+        <v>350</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O26" s="31"/>
       <c r="P26" s="12"/>
@@ -22823,18 +23179,42 @@
       <c r="B28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="C28" s="12">
+        <v>350</v>
+      </c>
+      <c r="D28" s="12">
+        <v>350</v>
+      </c>
+      <c r="E28" s="12">
+        <v>450</v>
+      </c>
+      <c r="F28" s="12">
+        <v>400</v>
+      </c>
+      <c r="G28" s="12">
+        <v>350</v>
+      </c>
+      <c r="H28" s="12">
+        <v>450</v>
+      </c>
+      <c r="I28" s="12">
+        <v>350</v>
+      </c>
+      <c r="J28" s="12">
+        <v>400</v>
+      </c>
+      <c r="K28" s="12">
+        <v>350</v>
+      </c>
+      <c r="L28" s="12">
+        <v>400</v>
+      </c>
+      <c r="M28" s="12">
+        <v>350</v>
+      </c>
+      <c r="N28" s="12">
+        <v>350</v>
+      </c>
       <c r="O28" s="31"/>
       <c r="P28" s="12"/>
     </row>
@@ -22944,6 +23324,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22955,7 +23336,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22988,7 +23369,7 @@
       </c>
       <c r="B3" s="25">
         <f>SUM(Distribution!C4:N4,Distribution!C8:N9,Distribution!C13:N13)*DATA!S13</f>
-        <v>0</v>
+        <v>3570000</v>
       </c>
       <c r="E3" s="57" t="s">
         <v>130</v>
@@ -23018,14 +23399,14 @@
       </c>
       <c r="B5" s="25">
         <f>SUM('Production Planning'!C4:N4)*0.45+0.25*SUM('Production Planning'!C5:N5)+SUM('Production Planning'!C19:N19)*2.5+SUM('Production Planning'!C24:N24)*2.5+SUM('Production Planning'!C10:N10)*0.45+SUM('Production Planning'!C11:N11)*0.25</f>
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F5" s="58">
         <f>MAX('Production Planning'!C32:N32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -23050,7 +23431,7 @@
       </c>
       <c r="B7" s="25">
         <f>SUM('Milk Transportation'!C4:N4)*0.03+SUM('Milk Transportation'!C5:N5)*0.02+SUM('Milk Transportation'!C6:N6)*0.1+SUM('Milk Transportation'!C11:N11)*0.05+SUM('Milk Transportation'!C12:N12)*0.07+SUM('Milk Transportation'!C13:N13)*0.09+SUM(Distribution!C8:N8)*0.03+SUM(Distribution!C9:N9)*0.09+SUM(Distribution!C21:N21)*0.04+SUM(Distribution!C22:N22)*0.09+SUM(Distribution!C28:N28)*0.13+SUM(Distribution!C27:N27)*0.08</f>
-        <v>12</v>
+        <v>1415.5</v>
       </c>
       <c r="E7" s="57" t="s">
         <v>133</v>
@@ -23067,7 +23448,7 @@
       </c>
       <c r="F8" s="31">
         <f>MAX('Milk Transportation'!C22:N22,'Milk Transportation'!C27:N27,'Milk Transportation'!C32:N32)</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -23077,14 +23458,14 @@
       </c>
       <c r="B9" s="28">
         <f>B3-B4-B5-B6-B7</f>
-        <v>-12</v>
+        <v>3565759.5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="31">
         <f>MAX('Milk Transportation'!C7:N7,'Milk Transportation'!C15:N15)</f>
-        <v>150</v>
+        <v>6750</v>
       </c>
       <c r="G9" s="2"/>
     </row>

--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obit9\Documents\GitHub\Productinnovatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geukens Arno\Desktop\ProductInnovatie\ProductInnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48972B0A-3ECD-46C5-AE14-F948BA0CBA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C134C-956E-4393-9AE9-15BDC0FC347E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20077" windowHeight="10769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="143">
   <si>
     <t>Milk_Pack</t>
   </si>
@@ -957,13 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -975,6 +969,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -983,9 +986,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,11 +1005,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Berekening" xfId="3" builtinId="22"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="2" builtinId="28"/>
+    <cellStyle name="Procent" xfId="5" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1426,109 +1426,109 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.09375" customWidth="1"/>
+    <col min="4" max="4" width="13.90234375" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="L1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="G4" s="65" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="G4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="L4" s="65" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="L4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-      <c r="R4" s="65" t="s">
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="R4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="67"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="65"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="G5" s="62" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="G5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
       <c r="L5" s="1"/>
       <c r="M5" s="35" t="s">
         <v>30</v>
@@ -1550,7 +1550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="36"/>
       <c r="D8" s="2"/>
@@ -1685,7 +1685,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
       <c r="D10" s="2"/>
       <c r="G10" s="1"/>
@@ -1765,19 +1765,19 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+      <c r="A11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="G11" s="62" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="G11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
       <c r="L11" s="37" t="s">
         <v>18</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="36"/>
       <c r="D14" s="2"/>
@@ -1937,7 +1937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2025,7 +2025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
       <c r="L17" s="42" t="s">
         <v>24</v>
       </c>
@@ -2054,19 +2054,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A18" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="47"/>
       <c r="B19" s="35" t="s">
         <v>44</v>
@@ -2092,8 +2092,8 @@
       </c>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A20" s="69" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2109,8 +2109,8 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A21" s="69"/>
       <c r="B21" s="40" t="s">
         <v>30</v>
       </c>
@@ -2124,8 +2124,8 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A22" s="69"/>
       <c r="B22" s="40" t="s">
         <v>31</v>
       </c>
@@ -2139,8 +2139,8 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A23" s="69"/>
       <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
@@ -2166,8 +2166,8 @@
       <c r="W23" s="40"/>
       <c r="X23" s="40"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A24" s="69"/>
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2195,8 @@
       <c r="W24" s="41"/>
       <c r="X24" s="41"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A25" s="69"/>
       <c r="B25" s="40" t="s">
         <v>32</v>
       </c>
@@ -2214,8 +2214,8 @@
       <c r="M25" s="40"/>
       <c r="N25" s="40"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A26" s="69"/>
       <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
@@ -2242,8 +2242,8 @@
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="69" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A27" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -2274,8 +2274,8 @@
       <c r="W27" s="41"/>
       <c r="X27" s="41"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="68"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A28" s="69"/>
       <c r="B28" s="40" t="s">
         <v>42</v>
       </c>
@@ -2291,8 +2291,8 @@
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A29" s="69"/>
       <c r="B29" s="40" t="s">
         <v>41</v>
       </c>
@@ -2318,8 +2318,8 @@
       <c r="W29" s="40"/>
       <c r="X29" s="40"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A30" s="69"/>
       <c r="B30" s="40" t="s">
         <v>41</v>
       </c>
@@ -2344,8 +2344,8 @@
       <c r="W30" s="41"/>
       <c r="X30" s="41"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A31" s="69"/>
       <c r="B31" s="40" t="s">
         <v>45</v>
       </c>
@@ -2359,8 +2359,8 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A32" s="69"/>
       <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2373,8 @@
       <c r="H32" s="2"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="68"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A33" s="69"/>
       <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
@@ -2387,8 +2387,8 @@
       <c r="H33" s="2"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A34" s="71"/>
       <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
       <c r="B35" s="40"/>
       <c r="D35" s="40"/>
       <c r="F35" s="48"/>
@@ -2419,22 +2419,22 @@
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A36" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="65"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A37" s="47"/>
       <c r="B37" s="35" t="s">
         <v>53</v>
@@ -2453,7 +2453,7 @@
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
       <c r="B38" s="40" t="s">
         <v>1</v>
@@ -2474,7 +2474,7 @@
       <c r="J38" s="40"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A39" s="1"/>
       <c r="B39" s="40" t="s">
         <v>1</v>
@@ -2495,7 +2495,7 @@
       <c r="J39" s="40"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A40" s="1"/>
       <c r="B40" s="40" t="s">
         <v>1</v>
@@ -2516,7 +2516,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A41" s="1"/>
       <c r="B41" s="40" t="s">
         <v>1</v>
@@ -2537,7 +2537,7 @@
       <c r="J41" s="40"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A42" s="1"/>
       <c r="B42" s="40" t="s">
         <v>1</v>
@@ -2556,7 +2556,7 @@
       <c r="H42" s="2"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A43" s="1"/>
       <c r="B43" s="40" t="s">
         <v>1</v>
@@ -2574,7 +2574,7 @@
       <c r="G43" s="48"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="B44" s="40" t="s">
         <v>1</v>
@@ -2592,7 +2592,7 @@
       <c r="G44" s="48"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A45" s="1"/>
       <c r="B45" s="40" t="s">
         <v>4</v>
@@ -2610,7 +2610,7 @@
       <c r="G45" s="48"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A46" s="1"/>
       <c r="B46" s="40" t="s">
         <v>4</v>
@@ -2628,7 +2628,7 @@
       <c r="G46" s="48"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A47" s="1"/>
       <c r="B47" s="40" t="s">
         <v>0</v>
@@ -2646,7 +2646,7 @@
       <c r="G47" s="48"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A48" s="1"/>
       <c r="B48" s="40" t="s">
         <v>0</v>
@@ -2664,7 +2664,7 @@
       <c r="G48" s="48"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="1"/>
       <c r="B49" s="40" t="s">
         <v>0</v>
@@ -2682,7 +2682,7 @@
       <c r="G49" s="48"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="1"/>
       <c r="B50" s="40" t="s">
         <v>0</v>
@@ -2700,7 +2700,7 @@
       <c r="G50" s="48"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="1"/>
       <c r="B51" s="40" t="s">
         <v>0</v>
@@ -2718,7 +2718,7 @@
       <c r="G51" s="48"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="1"/>
       <c r="B52" s="40" t="s">
         <v>0</v>
@@ -2736,7 +2736,7 @@
       <c r="G52" s="48"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A53" s="3"/>
       <c r="B53" s="51" t="s">
         <v>0</v>
@@ -2754,19 +2754,19 @@
       <c r="G53" s="52"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A56" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="67"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="65"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="47"/>
       <c r="B57" s="35" t="s">
         <v>53</v>
@@ -2784,7 +2784,7 @@
       <c r="G57" s="35"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="1"/>
       <c r="B58" s="40" t="s">
         <v>0</v>
@@ -2802,7 +2802,7 @@
       <c r="G58" s="48"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="1"/>
       <c r="B59" s="40" t="s">
         <v>0</v>
@@ -2820,7 +2820,7 @@
       <c r="G59" s="48"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="1"/>
       <c r="B60" s="40" t="s">
         <v>0</v>
@@ -2838,7 +2838,7 @@
       <c r="G60" s="48"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="1"/>
       <c r="B61" s="40" t="s">
         <v>0</v>
@@ -2856,7 +2856,7 @@
       <c r="G61" s="48"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="1"/>
       <c r="B62" s="40" t="s">
         <v>4</v>
@@ -2874,7 +2874,7 @@
       <c r="G62" s="48"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="3"/>
       <c r="B63" s="51" t="s">
         <v>4</v>
@@ -2892,19 +2892,19 @@
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="65" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A65" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="67"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="65"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="47"/>
       <c r="B66" s="35" t="s">
         <v>44</v>
@@ -2920,7 +2920,7 @@
       <c r="G66" s="35"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A67" s="56" t="s">
         <v>1</v>
       </c>
@@ -2940,12 +2940,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="L1:U2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="A5:D5"/>
@@ -2956,6 +2950,12 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2967,18 +2967,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="15" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="39.09375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -3020,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A2" s="20" t="s">
         <v>75</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -3072,55 +3072,55 @@
         <v>25</v>
       </c>
       <c r="C3" s="15">
-        <f>'Production Planning'!C4</f>
-        <v>0</v>
+        <f>'Production Planning'!C4+'Production Planning'!C19*10</f>
+        <v>500</v>
       </c>
       <c r="D3" s="15">
-        <f>'Production Planning'!D4</f>
-        <v>0</v>
+        <f>'Production Planning'!D4+'Production Planning'!D19*10</f>
+        <v>500</v>
       </c>
       <c r="E3" s="15">
-        <f>'Production Planning'!E4</f>
-        <v>0</v>
+        <f>'Production Planning'!E4+'Production Planning'!E19*10</f>
+        <v>450</v>
       </c>
       <c r="F3" s="15">
-        <f>'Production Planning'!F4</f>
-        <v>0</v>
+        <f>'Production Planning'!F4+'Production Planning'!F19*10</f>
+        <v>450</v>
       </c>
       <c r="G3" s="15">
-        <f>'Production Planning'!G4</f>
-        <v>0</v>
+        <f>'Production Planning'!G4+'Production Planning'!G19*10</f>
+        <v>500</v>
       </c>
       <c r="H3" s="15">
-        <f>'Production Planning'!H4</f>
-        <v>0</v>
+        <f>'Production Planning'!H4+'Production Planning'!H19*10</f>
+        <v>250</v>
       </c>
       <c r="I3" s="15">
-        <f>'Production Planning'!I4</f>
-        <v>0</v>
+        <f>'Production Planning'!I4+'Production Planning'!I19*10</f>
+        <v>500</v>
       </c>
       <c r="J3" s="15">
-        <f>'Production Planning'!J4</f>
-        <v>0</v>
+        <f>'Production Planning'!J4+'Production Planning'!J19*10</f>
+        <v>500</v>
       </c>
       <c r="K3" s="15">
-        <f>'Production Planning'!K4</f>
-        <v>0</v>
+        <f>'Production Planning'!K4+'Production Planning'!K19*10</f>
+        <v>500</v>
       </c>
       <c r="L3" s="15">
-        <f>'Production Planning'!L4</f>
-        <v>0</v>
+        <f>'Production Planning'!L4+'Production Planning'!L19*10</f>
+        <v>500</v>
       </c>
       <c r="M3" s="15">
-        <f>'Production Planning'!M4</f>
-        <v>0</v>
+        <f>'Production Planning'!M4+'Production Planning'!M19*10</f>
+        <v>500</v>
       </c>
       <c r="N3" s="15">
-        <f>'Production Planning'!N4</f>
-        <v>0</v>
+        <f>'Production Planning'!N4+'Production Planning'!N19*10</f>
+        <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -3261,51 +3261,51 @@
       </c>
       <c r="C7" s="15">
         <f>B7-C3+C4+C5+C6</f>
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" ref="D7:N7" si="0">C7-D3+D4+D5+D6</f>
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>500</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>650</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>3150</v>
+        <v>750</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>1050</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>1050</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>4650</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>5100</v>
+        <v>950</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>950</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="0"/>
-        <v>6150</v>
+        <v>1000</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>6750</v>
+        <v>1100</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -3320,7 +3320,7 @@
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -3348,7 +3348,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
         <v>78</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -3388,51 +3388,51 @@
         <v>25</v>
       </c>
       <c r="C10" s="15">
-        <f>'Production Planning'!C10</f>
+        <f>'Production Planning'!C10+'Production Planning'!C24*10</f>
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <f>'Production Planning'!D10</f>
+        <f>'Production Planning'!D10+'Production Planning'!D24*10</f>
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <f>'Production Planning'!E10</f>
+        <f>'Production Planning'!E10+'Production Planning'!E24*10</f>
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f>'Production Planning'!F10</f>
+        <f>'Production Planning'!F10+'Production Planning'!F24*10</f>
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f>'Production Planning'!G10</f>
+        <f>'Production Planning'!G10+'Production Planning'!G24*10</f>
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <f>'Production Planning'!H10</f>
+        <f>'Production Planning'!H10+'Production Planning'!H24*10</f>
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <f>'Production Planning'!I10</f>
+        <f>'Production Planning'!I10+'Production Planning'!I24*10</f>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>'Production Planning'!J10</f>
+        <f>'Production Planning'!J10+'Production Planning'!J24*10</f>
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <f>'Production Planning'!K10</f>
+        <f>'Production Planning'!K10+'Production Planning'!K24*10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <f>'Production Planning'!L10</f>
+        <f>'Production Planning'!L10+'Production Planning'!L24*10</f>
         <v>0</v>
       </c>
       <c r="M10" s="15">
-        <f>'Production Planning'!M10</f>
+        <f>'Production Planning'!M10+'Production Planning'!M24*10</f>
         <v>0</v>
       </c>
       <c r="N10" s="15">
-        <f>'Production Planning'!N10</f>
+        <f>'Production Planning'!N10+'Production Planning'!N24*10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="7"/>
@@ -3450,7 +3450,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>111</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.6">
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -3720,7 +3720,7 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -3734,7 +3734,7 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -3776,7 +3776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
@@ -3932,7 +3932,7 @@
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -20386,7 +20386,7 @@
       <c r="XFC23" s="6"/>
       <c r="XFD23" s="6"/>
     </row>
-    <row r="24" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A24" s="21" t="s">
         <v>28</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>81</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -20598,7 +20598,7 @@
       <c r="AD27" s="6"/>
       <c r="AE27" s="6"/>
     </row>
-    <row r="28" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
@@ -20626,7 +20626,7 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A29" s="21" t="s">
         <v>29</v>
       </c>
@@ -20682,7 +20682,7 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A30" s="6" t="s">
         <v>81</v>
       </c>
@@ -20748,7 +20748,7 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A31" s="6" t="s">
         <v>83</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16384" x14ac:dyDescent="0.6">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -20874,17 +20874,17 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="15" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.09375" customWidth="1"/>
+    <col min="2" max="2" width="18.09375" customWidth="1"/>
+    <col min="3" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -20926,7 +20926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A2" s="20" t="s">
         <v>69</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
@@ -21038,7 +21038,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
@@ -21071,7 +21071,7 @@
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A5" s="14" t="s">
         <v>94</v>
       </c>
@@ -21128,7 +21128,7 @@
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -21186,7 +21186,7 @@
       <c r="O6" s="30"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -21204,7 +21204,7 @@
       <c r="O7" s="30"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A8" s="20" t="s">
         <v>72</v>
       </c>
@@ -21226,7 +21226,7 @@
       <c r="O8" s="30"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>81</v>
       </c>
@@ -21234,57 +21234,57 @@
         <v>25</v>
       </c>
       <c r="C9" s="15">
-        <f>Distribution!C27+Distribution!C33</f>
-        <v>0</v>
+        <f>Distribution!C22+Distribution!C28</f>
+        <v>350</v>
       </c>
       <c r="D9" s="15">
-        <f>Distribution!D27+Distribution!D33</f>
-        <v>0</v>
+        <f>Distribution!D22+Distribution!D28</f>
+        <v>350</v>
       </c>
       <c r="E9" s="15">
-        <f>Distribution!E27+Distribution!E33</f>
-        <v>0</v>
+        <f>Distribution!E22+Distribution!E28</f>
+        <v>450</v>
       </c>
       <c r="F9" s="15">
-        <f>Distribution!F27+Distribution!F33</f>
-        <v>0</v>
+        <f>Distribution!F22+Distribution!F28</f>
+        <v>400</v>
       </c>
       <c r="G9" s="15">
-        <f>Distribution!G27+Distribution!G33</f>
-        <v>0</v>
+        <f>Distribution!G22+Distribution!G28</f>
+        <v>350</v>
       </c>
       <c r="H9" s="15">
-        <f>Distribution!H27+Distribution!H33</f>
-        <v>0</v>
+        <f>Distribution!H22+Distribution!H28</f>
+        <v>450</v>
       </c>
       <c r="I9" s="15">
-        <f>Distribution!I27+Distribution!I33</f>
-        <v>0</v>
+        <f>Distribution!I22+Distribution!I28</f>
+        <v>350</v>
       </c>
       <c r="J9" s="15">
-        <f>Distribution!J27+Distribution!J33</f>
-        <v>0</v>
+        <f>Distribution!J22+Distribution!J28</f>
+        <v>400</v>
       </c>
       <c r="K9" s="15">
-        <f>Distribution!K27+Distribution!K33</f>
-        <v>0</v>
+        <f>Distribution!K22+Distribution!K28</f>
+        <v>350</v>
       </c>
       <c r="L9" s="15">
-        <f>Distribution!L27+Distribution!L33</f>
-        <v>0</v>
+        <f>Distribution!L22+Distribution!L28</f>
+        <v>400</v>
       </c>
       <c r="M9" s="15">
-        <f>Distribution!M27+Distribution!M33</f>
-        <v>0</v>
+        <f>Distribution!M22+Distribution!M28</f>
+        <v>350</v>
       </c>
       <c r="N9" s="15">
-        <f>Distribution!N27+Distribution!N33</f>
-        <v>0</v>
+        <f>Distribution!N22+Distribution!N28</f>
+        <v>350</v>
       </c>
       <c r="O9" s="30"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A10" s="14" t="s">
         <v>95</v>
       </c>
@@ -21307,30 +21307,54 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A11" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="15">
+        <v>350</v>
+      </c>
+      <c r="D11" s="15">
+        <v>350</v>
+      </c>
+      <c r="E11" s="15">
+        <v>450</v>
+      </c>
+      <c r="F11" s="15">
+        <v>400</v>
+      </c>
+      <c r="G11" s="15">
+        <v>350</v>
+      </c>
+      <c r="H11" s="15">
+        <v>450</v>
+      </c>
+      <c r="I11" s="15">
+        <v>350</v>
+      </c>
+      <c r="J11" s="15">
+        <v>400</v>
+      </c>
+      <c r="K11" s="15">
+        <v>350</v>
+      </c>
+      <c r="L11" s="15">
+        <v>400</v>
+      </c>
+      <c r="M11" s="15">
+        <v>350</v>
+      </c>
+      <c r="N11" s="15">
+        <v>350</v>
+      </c>
       <c r="O11" s="30"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -21399,7 +21423,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
       <c r="O13" s="30"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -21414,7 +21438,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
       <c r="O14" s="30"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -21429,11 +21453,11 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
       <c r="O15" s="30"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>12</v>
@@ -21477,7 +21501,7 @@
       <c r="O16" s="30"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A17" s="20" t="s">
         <v>73</v>
       </c>
@@ -21523,19 +21547,17 @@
       <c r="O17" s="30"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="15">
         <f>C5*0.1</f>
         <v>50</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" ref="D18:N19" si="13">D5*0.1</f>
+        <f t="shared" ref="D18:N18" si="13">D5*0.1</f>
         <v>50</v>
       </c>
       <c r="E18" s="15">
@@ -21581,7 +21603,7 @@
       <c r="O18" s="30"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A19" s="14" t="s">
         <v>106</v>
       </c>
@@ -21627,7 +21649,7 @@
       <c r="O19" s="30"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
@@ -21685,7 +21707,7 @@
       <c r="O20" s="30"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -21703,7 +21725,7 @@
       <c r="O21" s="30"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A22" s="20" t="s">
         <v>74</v>
       </c>
@@ -21725,63 +21747,63 @@
       <c r="O22" s="30"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="15">
         <f>C11*0.1</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D23" s="15">
         <f t="shared" ref="D23:N23" si="15">D11*0.1</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O23" s="30"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -21803,7 +21825,7 @@
       <c r="O24" s="30"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -21812,56 +21834,56 @@
       </c>
       <c r="C25" s="15">
         <f>B25-C23+C24</f>
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" ref="D25:N25" si="16">C25-D23+D24</f>
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-310</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-345</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-420</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="O25" s="30"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.6">
       <c r="C29" s="40" t="s">
         <v>13</v>
       </c>
@@ -21899,12 +21921,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A30" s="59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -21957,7 +21979,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -22010,115 +22032,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A34" s="59" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="60">
         <f t="shared" ref="C35:N35" si="19">C10*1+C11*1+C24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="61">
         <f>(C35/500)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D36" s="61">
         <f t="shared" ref="D36:N36" si="20">(D35/500)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -22140,19 +22162,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="14" width="14.5546875" customWidth="1"/>
+    <col min="3" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -22194,7 +22216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
@@ -22238,7 +22260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
@@ -22282,7 +22304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>97</v>
       </c>
@@ -22326,7 +22348,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="11"/>
@@ -22342,7 +22364,7 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
@@ -22386,7 +22408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -22430,7 +22452,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>98</v>
       </c>
@@ -22476,7 +22498,7 @@
       <c r="O8" s="31"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>99</v>
       </c>
@@ -22522,7 +22544,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="11"/>
@@ -22540,7 +22562,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
         <v>62</v>
       </c>
@@ -22586,7 +22608,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
@@ -22632,7 +22654,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
@@ -22678,23 +22700,23 @@
       <c r="O13" s="31"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
       <c r="O14" s="31"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
       <c r="O15" s="31"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
       <c r="O16" s="31"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.6">
       <c r="O17" s="31"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -22738,7 +22760,7 @@
       <c r="O18" s="31"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A19" s="19" t="s">
         <v>64</v>
       </c>
@@ -22784,7 +22806,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
@@ -22842,7 +22864,7 @@
       <c r="O20" s="31"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -22888,7 +22910,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>102</v>
       </c>
@@ -22946,7 +22968,7 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -23016,7 +23038,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -23046,7 +23068,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A25" s="19" t="s">
         <v>66</v>
       </c>
@@ -23092,7 +23114,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
         <v>81</v>
       </c>
@@ -23104,7 +23126,7 @@
         <v>350</v>
       </c>
       <c r="D26" s="15">
-        <f t="shared" ref="D26:N28" si="2">D9+D13</f>
+        <f t="shared" ref="D26:N26" si="2">D9+D13</f>
         <v>350</v>
       </c>
       <c r="E26" s="15">
@@ -23150,7 +23172,7 @@
       <c r="O26" s="31"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
         <v>103</v>
       </c>
@@ -23172,7 +23194,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
@@ -23218,7 +23240,7 @@
       <c r="O28" s="31"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.6">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -23276,11 +23298,11 @@
       <c r="O29" s="31"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.6">
       <c r="O30" s="31"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.6">
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -23294,7 +23316,7 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
     </row>
-    <row r="33" spans="18:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:29" x14ac:dyDescent="0.6">
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -23308,7 +23330,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="18:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:29" x14ac:dyDescent="0.6">
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -23336,17 +23358,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="72" t="s">
         <v>85</v>
       </c>
@@ -23357,13 +23379,13 @@
       <c r="F1" s="75"/>
       <c r="G1" s="76"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="E2" s="1"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="24" t="s">
         <v>86</v>
       </c>
@@ -23376,7 +23398,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="24" t="s">
         <v>87</v>
       </c>
@@ -23389,17 +23411,17 @@
       </c>
       <c r="F4" s="58">
         <f>MAX('Production Planning'!C36:N36)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="25">
         <f>SUM('Production Planning'!C4:N4)*0.45+0.25*SUM('Production Planning'!C5:N5)+SUM('Production Planning'!C19:N19)*2.5+SUM('Production Planning'!C24:N24)*2.5+SUM('Production Planning'!C10:N10)*0.45+SUM('Production Planning'!C11:N11)*0.25</f>
-        <v>2825</v>
+        <v>3962.5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
@@ -23410,7 +23432,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="24" t="s">
         <v>89</v>
       </c>
@@ -23420,12 +23442,12 @@
       </c>
       <c r="C6" s="29" t="str">
         <f>IF(OR(COUNTIF('Milk Transportation'!C32:N32,"&lt;0"),COUNTIF('Milk Transportation'!C27:N27,"&lt;0"),COUNTIF('Milk Transportation'!C22:N22,"&lt;0"),COUNTIF('Milk Transportation'!C7:N7,"&lt;0"),COUNTIF('Milk Transportation'!C15:N15,"&lt;0"),COUNTIF('Production Planning'!C6:N6,"&lt;0"),COUNTIF('Production Planning'!C12:N12,"&lt;0"),COUNTIF('Production Planning'!C20:N20,"&lt;0"),COUNTIF('Production Planning'!C25:N25,"&lt;0"),COUNTIF(Distribution!C23:N23,"&lt;0"),COUNTIF(Distribution!C29:N29,"&lt;0")),"Infeasible Plan - Components have negative stock position","")</f>
-        <v/>
+        <v>Infeasible Plan - Components have negative stock position</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="24" t="s">
         <v>90</v>
       </c>
@@ -23438,7 +23460,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="24" t="s">
         <v>92</v>
       </c>
@@ -23452,38 +23474,38 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="28">
         <f>B3-B4-B5-B6-B7</f>
-        <v>3565759.5</v>
+        <v>3564622</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="31">
         <f>MAX('Milk Transportation'!C7:N7,'Milk Transportation'!C15:N15)</f>
-        <v>6750</v>
+        <v>3450</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E10" s="1"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F11">
         <f>MIN('Production Planning'!C20:'Production Planning'!C20:N20,'Production Planning'!C25:N25)</f>
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
@@ -23493,7 +23515,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="E13" s="3" t="s">
         <v>138</v>
       </c>
@@ -23541,13 +23563,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="105.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.21875" customWidth="1"/>
+    <col min="1" max="1" width="105.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="32" t="s">
         <v>119</v>
       </c>
@@ -23555,37 +23577,37 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="33" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="33" t="s">
         <v>123</v>
       </c>
       <c r="B4" s="33"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="33" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="33" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="33"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="33" t="s">
         <v>126</v>
       </c>

--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obit9\Documents\GitHub\Productinnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48972B0A-3ECD-46C5-AE14-F948BA0CBA14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645B0A0D-3A91-48E2-AA90-4BFD3DC76E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1426,7 +1426,7 @@
   <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C3" s="15">
         <f>'Production Planning'!C4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D3" s="15">
         <f>'Production Planning'!D4</f>
@@ -3261,51 +3261,51 @@
       </c>
       <c r="C7" s="15">
         <f>B7-C3+C4+C5+C6</f>
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" ref="D7:N7" si="0">C7-D3+D4+D5+D6</f>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>1700</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>2550</v>
+        <v>2300</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>3150</v>
+        <v>2900</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>3450</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>3950</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>4650</v>
+        <v>4400</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>5100</v>
+        <v>4850</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="0"/>
-        <v>5600</v>
+        <v>5350</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="0"/>
-        <v>6150</v>
+        <v>5900</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -20873,8 +20873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21045,7 +21045,9 @@
       <c r="B4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="13">
+        <v>250</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -21079,7 +21081,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="13">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D5" s="13">
         <v>500</v>
@@ -21234,52 +21236,52 @@
         <v>25</v>
       </c>
       <c r="C9" s="15">
-        <f>Distribution!C27+Distribution!C33</f>
-        <v>0</v>
+        <f>Distribution!C22+Distribution!C28</f>
+        <v>350</v>
       </c>
       <c r="D9" s="15">
-        <f>Distribution!D27+Distribution!D33</f>
-        <v>0</v>
+        <f>Distribution!D22+Distribution!D28</f>
+        <v>350</v>
       </c>
       <c r="E9" s="15">
-        <f>Distribution!E27+Distribution!E33</f>
-        <v>0</v>
+        <f>Distribution!E22+Distribution!E28</f>
+        <v>450</v>
       </c>
       <c r="F9" s="15">
-        <f>Distribution!F27+Distribution!F33</f>
-        <v>0</v>
+        <f>Distribution!F22+Distribution!F28</f>
+        <v>400</v>
       </c>
       <c r="G9" s="15">
-        <f>Distribution!G27+Distribution!G33</f>
-        <v>0</v>
+        <f>Distribution!G22+Distribution!G28</f>
+        <v>350</v>
       </c>
       <c r="H9" s="15">
-        <f>Distribution!H27+Distribution!H33</f>
-        <v>0</v>
+        <f>Distribution!H22+Distribution!H28</f>
+        <v>450</v>
       </c>
       <c r="I9" s="15">
-        <f>Distribution!I27+Distribution!I33</f>
-        <v>0</v>
+        <f>Distribution!I22+Distribution!I28</f>
+        <v>350</v>
       </c>
       <c r="J9" s="15">
-        <f>Distribution!J27+Distribution!J33</f>
-        <v>0</v>
+        <f>Distribution!J22+Distribution!J28</f>
+        <v>400</v>
       </c>
       <c r="K9" s="15">
-        <f>Distribution!K27+Distribution!K33</f>
-        <v>0</v>
+        <f>Distribution!K22+Distribution!K28</f>
+        <v>350</v>
       </c>
       <c r="L9" s="15">
-        <f>Distribution!L27+Distribution!L33</f>
-        <v>0</v>
+        <f>Distribution!L22+Distribution!L28</f>
+        <v>400</v>
       </c>
       <c r="M9" s="15">
-        <f>Distribution!M27+Distribution!M33</f>
-        <v>0</v>
+        <f>Distribution!M22+Distribution!M28</f>
+        <v>350</v>
       </c>
       <c r="N9" s="15">
-        <f>Distribution!N27+Distribution!N33</f>
-        <v>0</v>
+        <f>Distribution!N22+Distribution!N28</f>
+        <v>350</v>
       </c>
       <c r="O9" s="30"/>
       <c r="Q9" s="7"/>
@@ -21314,18 +21316,42 @@
       <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="13">
+        <v>350</v>
+      </c>
+      <c r="D11" s="13">
+        <v>350</v>
+      </c>
+      <c r="E11" s="13">
+        <v>450</v>
+      </c>
+      <c r="F11" s="13">
+        <v>400</v>
+      </c>
+      <c r="G11" s="13">
+        <v>350</v>
+      </c>
+      <c r="H11" s="13">
+        <v>450</v>
+      </c>
+      <c r="I11" s="13">
+        <v>350</v>
+      </c>
+      <c r="J11" s="13">
+        <v>400</v>
+      </c>
+      <c r="K11" s="13">
+        <v>350</v>
+      </c>
+      <c r="L11" s="13">
+        <v>400</v>
+      </c>
+      <c r="M11" s="13">
+        <v>350</v>
+      </c>
+      <c r="N11" s="13">
+        <v>350</v>
+      </c>
       <c r="O11" s="30"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -21532,7 +21558,7 @@
       </c>
       <c r="C18" s="15">
         <f>C5*0.1</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" ref="D18:N19" si="13">D5*0.1</f>
@@ -21589,7 +21615,7 @@
         <v>84</v>
       </c>
       <c r="C19" s="13">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D19" s="13">
         <v>50</v>
@@ -21732,51 +21758,51 @@
       <c r="B23" s="6"/>
       <c r="C23" s="15">
         <f>C11*0.1</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D23" s="15">
         <f t="shared" ref="D23:N23" si="15">D11*0.1</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O23" s="30"/>
       <c r="Q23" s="7"/>
@@ -21812,51 +21838,51 @@
       </c>
       <c r="C25" s="15">
         <f>B25-C23+C24</f>
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" ref="D25:N25" si="16">C25-D23+D24</f>
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-310</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-345</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-420</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="O25" s="30"/>
       <c r="Q25" s="7"/>
@@ -21910,7 +21936,7 @@
       </c>
       <c r="C31" s="60">
         <f>C4*1+C5*1+C19*20</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D31" s="60">
         <f t="shared" ref="D31:N31" si="17">D4*1+D5*1+D19*20</f>
@@ -21963,7 +21989,7 @@
       </c>
       <c r="C32" s="61">
         <f>C31/500</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="61">
         <f t="shared" ref="D32:N32" si="18">D31/500</f>
@@ -22021,51 +22047,51 @@
       </c>
       <c r="C35" s="60">
         <f t="shared" ref="C35:N35" si="19">C10*1+C11*1+C24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N35" s="60">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -22074,51 +22100,51 @@
       </c>
       <c r="C36" s="61">
         <f>(C35/500)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D36" s="61">
         <f t="shared" ref="D36:N36" si="20">(D35/500)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N36" s="61">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -22140,7 +22166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -23389,7 +23415,7 @@
       </c>
       <c r="F4" s="58">
         <f>MAX('Production Planning'!C36:N36)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -23399,7 +23425,7 @@
       </c>
       <c r="B5" s="25">
         <f>SUM('Production Planning'!C4:N4)*0.45+0.25*SUM('Production Planning'!C5:N5)+SUM('Production Planning'!C19:N19)*2.5+SUM('Production Planning'!C24:N24)*2.5+SUM('Production Planning'!C10:N10)*0.45+SUM('Production Planning'!C11:N11)*0.25</f>
-        <v>2825</v>
+        <v>3950</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
@@ -23420,7 +23446,7 @@
       </c>
       <c r="C6" s="29" t="str">
         <f>IF(OR(COUNTIF('Milk Transportation'!C32:N32,"&lt;0"),COUNTIF('Milk Transportation'!C27:N27,"&lt;0"),COUNTIF('Milk Transportation'!C22:N22,"&lt;0"),COUNTIF('Milk Transportation'!C7:N7,"&lt;0"),COUNTIF('Milk Transportation'!C15:N15,"&lt;0"),COUNTIF('Production Planning'!C6:N6,"&lt;0"),COUNTIF('Production Planning'!C12:N12,"&lt;0"),COUNTIF('Production Planning'!C20:N20,"&lt;0"),COUNTIF('Production Planning'!C25:N25,"&lt;0"),COUNTIF(Distribution!C23:N23,"&lt;0"),COUNTIF(Distribution!C29:N29,"&lt;0")),"Infeasible Plan - Components have negative stock position","")</f>
-        <v/>
+        <v>Infeasible Plan - Components have negative stock position</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="2"/>
@@ -23458,14 +23484,14 @@
       </c>
       <c r="B9" s="28">
         <f>B3-B4-B5-B6-B7</f>
-        <v>3565759.5</v>
+        <v>3564634.5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="31">
         <f>MAX('Milk Transportation'!C7:N7,'Milk Transportation'!C15:N15)</f>
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -23479,7 +23505,7 @@
       </c>
       <c r="F11">
         <f>MIN('Production Planning'!C20:'Production Planning'!C20:N20,'Production Planning'!C25:N25)</f>
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="G11" s="2"/>
     </row>

--- a/40_OMPCase_Template_Final_Formula.xlsx
+++ b/40_OMPCase_Template_Final_Formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geukens Arno\Desktop\ProductInnovatie\ProductInnovatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C134C-956E-4393-9AE9-15BDC0FC347E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0B8949-AC42-4F9B-AF68-AD3D9B2E1B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20077" windowHeight="10769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,7 +957,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -969,15 +975,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -986,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1443,92 +1443,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="G4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="G4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="L4" s="63" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
+      <c r="L4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="R4" s="63" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="R4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="67"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="G5" s="66" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="G5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
       <c r="L5" s="1"/>
       <c r="M5" s="35" t="s">
         <v>30</v>
@@ -1766,18 +1766,18 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="G11" s="66" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="G11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
       <c r="L11" s="37" t="s">
         <v>18</v>
       </c>
@@ -2055,16 +2055,16 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="47"/>
@@ -2093,7 +2093,7 @@
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2110,7 +2110,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A21" s="69"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="40" t="s">
         <v>30</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A22" s="69"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="40" t="s">
         <v>31</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A23" s="69"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="X23" s="40"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A24" s="69"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="X24" s="41"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A25" s="69"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="40" t="s">
         <v>32</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A26" s="69"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="49" t="s">
@@ -2275,7 +2275,7 @@
       <c r="X27" s="41"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A28" s="69"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="40" t="s">
         <v>42</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="N28" s="40"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A29" s="69"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="40" t="s">
         <v>41</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="X29" s="40"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A30" s="69"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="40" t="s">
         <v>41</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="X30" s="41"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A31" s="69"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="40" t="s">
         <v>45</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.6">
-      <c r="A32" s="69"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="40" t="s">
         <v>45</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="K32" s="41"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A33" s="69"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="40" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="K33" s="41"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A34" s="71"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
@@ -2420,16 +2420,16 @@
       <c r="K35" s="41"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="41"/>
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
@@ -2755,16 +2755,16 @@
       <c r="H53" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="47"/>
@@ -2893,16 +2893,16 @@
       <c r="H63" s="5"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="65"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="47"/>
@@ -2940,6 +2940,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="L1:U2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="A5:D5"/>
@@ -2950,12 +2956,6 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A36:H36"/>
     <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="L1:U2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2968,7 +2968,7 @@
   <dimension ref="A1:XFD32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
@@ -3128,40 +3128,40 @@
         <v>60</v>
       </c>
       <c r="C4" s="13">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D4" s="13">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E4" s="13">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F4" s="13">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G4" s="13">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H4" s="13">
+        <v>100</v>
+      </c>
+      <c r="I4" s="13">
+        <v>200</v>
+      </c>
+      <c r="J4" s="13">
+        <v>50</v>
+      </c>
+      <c r="K4" s="13">
+        <v>100</v>
+      </c>
+      <c r="L4" s="13">
+        <v>150</v>
+      </c>
+      <c r="M4" s="13">
+        <v>200</v>
+      </c>
+      <c r="N4" s="13">
         <v>250</v>
-      </c>
-      <c r="I4" s="13">
-        <v>250</v>
-      </c>
-      <c r="J4" s="13">
-        <v>200</v>
-      </c>
-      <c r="K4" s="13">
-        <v>250</v>
-      </c>
-      <c r="L4" s="13">
-        <v>250</v>
-      </c>
-      <c r="M4" s="13">
-        <v>250</v>
-      </c>
-      <c r="N4" s="13">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.6">
@@ -3261,51 +3261,51 @@
       </c>
       <c r="C7" s="15">
         <f>B7-C3+C4+C5+C6</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" s="15">
         <f t="shared" ref="D7:N7" si="0">C7-D3+D4+D5+D6</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>450</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K7" s="15">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="L7" s="15">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>-50</v>
       </c>
       <c r="M7" s="15">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>-50</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -3389,51 +3389,51 @@
       </c>
       <c r="C10" s="15">
         <f>'Production Planning'!C10+'Production Planning'!C24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D10" s="15">
         <f>'Production Planning'!D10+'Production Planning'!D24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E10" s="15">
         <f>'Production Planning'!E10+'Production Planning'!E24*10</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F10" s="15">
         <f>'Production Planning'!F10+'Production Planning'!F24*10</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G10" s="15">
         <f>'Production Planning'!G10+'Production Planning'!G24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H10" s="15">
         <f>'Production Planning'!H10+'Production Planning'!H24*10</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I10" s="15">
         <f>'Production Planning'!I10+'Production Planning'!I24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J10" s="15">
         <f>'Production Planning'!J10+'Production Planning'!J24*10</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K10" s="15">
         <f>'Production Planning'!K10+'Production Planning'!K24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L10" s="15">
         <f>'Production Planning'!L10+'Production Planning'!L24*10</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M10" s="15">
         <f>'Production Planning'!M10+'Production Planning'!M24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N10" s="15">
         <f>'Production Planning'!N10+'Production Planning'!N24*10</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -3458,40 +3458,40 @@
         <v>79</v>
       </c>
       <c r="C11" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I11" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K11" s="13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L11" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N11" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -3647,51 +3647,51 @@
       </c>
       <c r="C15" s="15">
         <f>B15-C10+C11+C12+C13+C14</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D15" s="15">
         <f t="shared" ref="D15:N15" si="1">C15-D10+D11+D12+D13+D14</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="1"/>
-        <v>2550</v>
+        <v>0</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="1"/>
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="1"/>
-        <v>3150</v>
+        <v>0</v>
       </c>
       <c r="N15" s="15">
         <f t="shared" si="1"/>
-        <v>3450</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -20873,8 +20873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.6"/>
@@ -21314,40 +21314,40 @@
       <c r="B11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>350</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>350</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>450</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>400</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>350</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>450</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>350</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>400</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <v>350</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <v>400</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <v>350</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <v>350</v>
       </c>
       <c r="O11" s="30"/>
@@ -21757,7 +21757,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="15">
-        <f t="shared" ref="D23:N23" si="15">D11*0.1</f>
+        <f t="shared" ref="D23:N24" si="15">D11*0.1</f>
         <v>35</v>
       </c>
       <c r="E23" s="15">
@@ -21810,18 +21810,42 @@
       <c r="B24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="C24" s="13">
+        <v>35</v>
+      </c>
+      <c r="D24" s="13">
+        <v>35</v>
+      </c>
+      <c r="E24" s="13">
+        <v>45</v>
+      </c>
+      <c r="F24" s="13">
+        <v>40</v>
+      </c>
+      <c r="G24" s="13">
+        <v>35</v>
+      </c>
+      <c r="H24" s="13">
+        <v>45</v>
+      </c>
+      <c r="I24" s="13">
+        <v>35</v>
+      </c>
+      <c r="J24" s="13">
+        <v>40</v>
+      </c>
+      <c r="K24" s="13">
+        <v>35</v>
+      </c>
+      <c r="L24" s="13">
+        <v>40</v>
+      </c>
+      <c r="M24" s="13">
+        <v>35</v>
+      </c>
+      <c r="N24" s="13">
+        <v>35</v>
+      </c>
       <c r="O24" s="30"/>
       <c r="Q24" s="7"/>
     </row>
@@ -21834,51 +21858,51 @@
       </c>
       <c r="C25" s="15">
         <f>B25-C23+C24</f>
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="D25" s="15">
         <f t="shared" ref="D25:N25" si="16">C25-D23+D24</f>
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="16"/>
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="16"/>
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="16"/>
-        <v>-190</v>
+        <v>0</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="16"/>
-        <v>-235</v>
+        <v>0</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="16"/>
-        <v>-270</v>
+        <v>0</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="16"/>
-        <v>-310</v>
+        <v>0</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="16"/>
-        <v>-345</v>
+        <v>0</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="16"/>
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="16"/>
-        <v>-420</v>
+        <v>0</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="16"/>
-        <v>-455</v>
+        <v>0</v>
       </c>
       <c r="O25" s="30"/>
       <c r="Q25" s="7"/>
@@ -22043,51 +22067,51 @@
       </c>
       <c r="C35" s="60">
         <f t="shared" ref="C35:N35" si="19">C10*1+C11*1+C24*10</f>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="D35" s="60">
         <f t="shared" si="19"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="E35" s="60">
         <f t="shared" si="19"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="F35" s="60">
         <f t="shared" si="19"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G35" s="60">
         <f t="shared" si="19"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="H35" s="60">
         <f t="shared" si="19"/>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="I35" s="60">
         <f t="shared" si="19"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="J35" s="60">
         <f t="shared" si="19"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K35" s="60">
         <f t="shared" si="19"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L35" s="60">
         <f t="shared" si="19"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M35" s="60">
         <f t="shared" si="19"/>
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N35" s="60">
         <f t="shared" si="19"/>
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.6">
@@ -22096,51 +22120,51 @@
       </c>
       <c r="C36" s="61">
         <f>(C35/500)</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D36" s="61">
         <f t="shared" ref="D36:N36" si="20">(D35/500)</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="E36" s="61">
         <f t="shared" si="20"/>
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="F36" s="61">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="G36" s="61">
         <f t="shared" si="20"/>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H36" s="61">
         <f t="shared" si="20"/>
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="I36" s="61">
         <f t="shared" si="20"/>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="J36" s="61">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="K36" s="61">
         <f t="shared" si="20"/>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="L36" s="61">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="M36" s="61">
         <f t="shared" si="20"/>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="N36" s="61">
         <f t="shared" si="20"/>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -23411,7 +23435,7 @@
       </c>
       <c r="F4" s="58">
         <f>MAX('Production Planning'!C36:N36)</f>
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -23421,7 +23445,7 @@
       </c>
       <c r="B5" s="25">
         <f>SUM('Production Planning'!C4:N4)*0.45+0.25*SUM('Production Planning'!C5:N5)+SUM('Production Planning'!C19:N19)*2.5+SUM('Production Planning'!C24:N24)*2.5+SUM('Production Planning'!C10:N10)*0.45+SUM('Production Planning'!C11:N11)*0.25</f>
-        <v>3962.5</v>
+        <v>5100</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
@@ -23453,7 +23477,7 @@
       </c>
       <c r="B7" s="25">
         <f>SUM('Milk Transportation'!C4:N4)*0.03+SUM('Milk Transportation'!C5:N5)*0.02+SUM('Milk Transportation'!C6:N6)*0.1+SUM('Milk Transportation'!C11:N11)*0.05+SUM('Milk Transportation'!C12:N12)*0.07+SUM('Milk Transportation'!C13:N13)*0.09+SUM(Distribution!C8:N8)*0.03+SUM(Distribution!C9:N9)*0.09+SUM(Distribution!C21:N21)*0.04+SUM(Distribution!C22:N22)*0.09+SUM(Distribution!C28:N28)*0.13+SUM(Distribution!C27:N27)*0.08</f>
-        <v>1415.5</v>
+        <v>1437.5</v>
       </c>
       <c r="E7" s="57" t="s">
         <v>133</v>
@@ -23480,14 +23504,14 @@
       </c>
       <c r="B9" s="28">
         <f>B3-B4-B5-B6-B7</f>
-        <v>3564622</v>
+        <v>3563462.5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="31">
         <f>MAX('Milk Transportation'!C7:N7,'Milk Transportation'!C15:N15)</f>
-        <v>3450</v>
+        <v>500</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -23501,7 +23525,7 @@
       </c>
       <c r="F11">
         <f>MIN('Production Planning'!C20:'Production Planning'!C20:N20,'Production Planning'!C25:N25)</f>
-        <v>-455</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2"/>
     </row>
